--- a/ComplexNetwork1/src/result/CA.xlsx
+++ b/ComplexNetwork1/src/result/CA.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="basic_information" sheetId="4" r:id="rId1"/>
+    <sheet name="connected component" sheetId="5" r:id="rId1"/>
     <sheet name="degree" sheetId="2" r:id="rId2"/>
     <sheet name="clossness" sheetId="3" r:id="rId3"/>
     <sheet name="betweenness" sheetId="1" r:id="rId4"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="177">
   <si>
     <t>[CAYWK]</t>
   </si>
@@ -540,10 +540,19 @@
     <t>[CAYZP]</t>
   </si>
   <si>
-    <t>CA_vertice</t>
-  </si>
-  <si>
-    <t>CA_edge</t>
+    <t>total vertices is: 172</t>
+  </si>
+  <si>
+    <t>Component 1: [CAYGL, CAYGW, CAYPX, CAYUL, CAYUY, CAYVP, CAYQB, CAYWK, CAYZV, CAYEG, CAYVR, CAYOW, CAYYC, CAYWG, CAYYZ, CAYBC, CAYYY, CAYBG, CAYHZ, CAYYT, CAYFC, CAYQM, CAYSJ, CAYYG, CAYTZ, CAYVO, CAZBF, CAYMT, CAYKQ, CAYMO, CAZEM, CAYNC, CAYTS, CAYFA, CAZKE, CAYAT, CAYPO, CAYQT, CAYSB, CAYYU, CAYAM, CAYYB, CAYAG, CAYHD, CAYXL, CAYFH, CAYWP, CAYPL, CAYLH, CAYRL, CAYAC, CAZRJ, CAYAX, CAYTL, CAYER, CAYPM, CAZSJ, CAZPB, CAYVZ, CAYQK, CAYVB, CAYGR, CAYGP, CAYHU, CAYQG, CAYHM, CAYDF, CAYYR, CAYQX, CAYAY, CAYJT, CAYBX, CAYIF, CAYHR, CAYNA, CAYDP, CAZUM, CAYQY, CAYCL, CAYLW, CAYYJ, CAYMM, CAYQR, CAYXE, CAYGK, CAYXU, CAYZR, CAYQF, CAYPY, CAYSM, CAYZF, CAYHY, CAYXY, CAYCB, CAYCO, CAYYH, CAYRT, CAYVQ, CAYHK, CAYFS, CAYFJ, CAYRA, CAYSG, CAYWJ, CAZFN, CAYEV, CAYGH, CAYHI, CAYPC, CAYSY, CAYUB, CAZFM, CAYBK, CAYCS, CAYXN, CAYFB, CAYEK, CAYYQ, CAYUT, CAYZS, CAYTH, CAYFO, CAYQD, CAYGX, CAYTE, CAYCY, CAYGT, CAYUX, CAYXP, CAYLC, CAYVM, CAYIO, CAYXC, CAYXS, CAYYE, CAYXJ, CAYKA, CAYXT, CAYYD, CAYDQ, CAYSK, CAYQQ, CAYLL, CAYCD, CAYCG, CAYQU, CAYQL, CAYXH, CAYBR, CAYXX, CAYKF, CAYBL, CAYPW, CAYWL, CAYZT, CAZMT, CAYQZ, CAYPR, CAYYF, CAYZP, CAYOJ, CAYOP, CAYKL, CAYGV, CAYPN, CAYPH, CAYKG, CAYTQ]</t>
+  </si>
+  <si>
+    <t>Component 2: [CAYIK, CAYZG]</t>
+  </si>
+  <si>
+    <t>Component 3: [CAYGZ, CAYRB]</t>
+  </si>
+  <si>
+    <t>total edges is: 370</t>
   </si>
 </sst>
 </file>
@@ -860,33 +869,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C2D2F9-3AC8-4F59-A384-CE65E5134CD5}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AAC221-1017-4E5D-95BC-E2C148338964}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>172</v>
       </c>
-      <c r="B1">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>173</v>
       </c>
-      <c r="B2">
-        <v>1039</v>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/ComplexNetwork1/src/result/CA.xlsx
+++ b/ComplexNetwork1/src/result/CA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="connected component" sheetId="5" r:id="rId1"/>
@@ -558,7 +558,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,8 +594,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -869,39 +897,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AAC221-1017-4E5D-95BC-E2C148338964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -912,20 +940,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF311F2-0F20-4B9F-B43D-A49B59C8D8E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -933,7 +961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -941,7 +969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -949,7 +977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -957,7 +985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -965,7 +993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -973,7 +1001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -981,7 +1009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -989,7 +1017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -997,7 +1025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -1005,7 +1033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -1013,7 +1041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1021,7 +1049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -1037,7 +1065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -1045,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1053,7 +1081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1061,7 +1089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -1069,7 +1097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -1077,7 +1105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1085,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1093,7 +1121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -1101,7 +1129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1109,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1117,7 +1145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1125,7 +1153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1133,7 +1161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -1141,7 +1169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -1149,7 +1177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -1157,7 +1185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -1165,7 +1193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1173,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1181,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1189,7 +1217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1197,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -1205,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -1213,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -1221,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>136</v>
       </c>
@@ -1229,7 +1257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>140</v>
       </c>
@@ -1237,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1245,7 +1273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1253,7 +1281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1261,7 +1289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -1269,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -1277,7 +1305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -1285,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -1293,7 +1321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -1301,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -1309,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -1317,7 +1345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -1325,7 +1353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -1333,7 +1361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>130</v>
       </c>
@@ -1341,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>137</v>
       </c>
@@ -1349,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>147</v>
       </c>
@@ -1357,7 +1385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>148</v>
       </c>
@@ -1365,7 +1393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>156</v>
       </c>
@@ -1373,7 +1401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -1381,7 +1409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -1389,7 +1417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -1405,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -1413,7 +1441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -1421,7 +1449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -1429,7 +1457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -1437,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -1445,7 +1473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -1453,7 +1481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -1461,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -1469,7 +1497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -1477,7 +1505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -1485,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -1493,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -1501,7 +1529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -1509,7 +1537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -1525,7 +1553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -1533,7 +1561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>93</v>
       </c>
@@ -1541,7 +1569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -1549,7 +1577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -1557,7 +1585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -1565,7 +1593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>109</v>
       </c>
@@ -1573,7 +1601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -1581,7 +1609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -1589,7 +1617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -1597,7 +1625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -1605,7 +1633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -1613,7 +1641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>122</v>
       </c>
@@ -1621,7 +1649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -1629,7 +1657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>145</v>
       </c>
@@ -1637,7 +1665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>149</v>
       </c>
@@ -1645,7 +1673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>150</v>
       </c>
@@ -1653,7 +1681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>159</v>
       </c>
@@ -1661,7 +1689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -1669,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>169</v>
       </c>
@@ -1677,7 +1705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>170</v>
       </c>
@@ -1685,7 +1713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -1693,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -1701,7 +1729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -1709,7 +1737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -1717,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -1733,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -1741,7 +1769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -1749,7 +1777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -1757,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>32</v>
       </c>
@@ -1765,7 +1793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>37</v>
       </c>
@@ -1773,7 +1801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>39</v>
       </c>
@@ -1781,7 +1809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>41</v>
       </c>
@@ -1789,7 +1817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -1797,7 +1825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>47</v>
       </c>
@@ -1805,7 +1833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>51</v>
       </c>
@@ -1813,7 +1841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>57</v>
       </c>
@@ -1821,7 +1849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>62</v>
       </c>
@@ -1829,7 +1857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>66</v>
       </c>
@@ -1837,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>71</v>
       </c>
@@ -1845,7 +1873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>79</v>
       </c>
@@ -1853,7 +1881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>80</v>
       </c>
@@ -1861,7 +1889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -1869,7 +1897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -1877,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>90</v>
       </c>
@@ -1885,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>91</v>
       </c>
@@ -1893,7 +1921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>96</v>
       </c>
@@ -1901,7 +1929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -1909,7 +1937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>100</v>
       </c>
@@ -1917,7 +1945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>102</v>
       </c>
@@ -1925,7 +1953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>108</v>
       </c>
@@ -1933,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>111</v>
       </c>
@@ -1941,7 +1969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>124</v>
       </c>
@@ -1949,7 +1977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>125</v>
       </c>
@@ -1957,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>126</v>
       </c>
@@ -1965,7 +1993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -1973,7 +2001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -1981,7 +2009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -1989,7 +2017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>139</v>
       </c>
@@ -1997,7 +2025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -2005,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -2013,7 +2041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -2021,7 +2049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>157</v>
       </c>
@@ -2029,7 +2057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>158</v>
       </c>
@@ -2037,7 +2065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -2045,7 +2073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -2053,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -2061,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -2069,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -2077,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -2085,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -2093,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -2101,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>43</v>
       </c>
@@ -2109,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>45</v>
       </c>
@@ -2117,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>48</v>
       </c>
@@ -2125,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>58</v>
       </c>
@@ -2133,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>64</v>
       </c>
@@ -2141,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>74</v>
       </c>
@@ -2149,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>75</v>
       </c>
@@ -2157,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>76</v>
       </c>
@@ -2165,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>77</v>
       </c>
@@ -2173,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>87</v>
       </c>
@@ -2181,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>88</v>
       </c>
@@ -2189,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>101</v>
       </c>
@@ -2197,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>105</v>
       </c>
@@ -2205,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>107</v>
       </c>
@@ -2213,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>110</v>
       </c>
@@ -2221,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>119</v>
       </c>
@@ -2229,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>128</v>
       </c>
@@ -2237,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>133</v>
       </c>
@@ -2245,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>143</v>
       </c>
@@ -2253,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>152</v>
       </c>
@@ -2261,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>153</v>
       </c>
@@ -2269,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>154</v>
       </c>
@@ -2277,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>165</v>
       </c>
@@ -2285,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -2293,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -2310,20 +2338,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E40F21-1ADC-4B29-8B2A-4E0E58F7AB87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -2331,7 +2359,7 @@
         <v>0.50561125034809096</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -2339,7 +2367,7 @@
         <v>0.50214424951266901</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -2347,7 +2375,7 @@
         <v>0.4901141743247</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -2355,7 +2383,7 @@
         <v>0.48563074352547903</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2363,7 +2391,7 @@
         <v>0.47218045112781898</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2371,7 +2399,7 @@
         <v>0.46759955444165902</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2379,7 +2407,7 @@
         <v>0.46759955444165902</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -2387,7 +2415,7 @@
         <v>0.41769702032859901</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -2395,7 +2423,7 @@
         <v>0.41501670843776101</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2403,7 +2431,7 @@
         <v>0.40064049011417402</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -2411,7 +2439,7 @@
         <v>0.39132553606237802</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2419,7 +2447,7 @@
         <v>0.38533834586466198</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -2427,7 +2455,7 @@
         <v>0.38533834586466198</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2435,7 +2463,7 @@
         <v>0.384851016429964</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -2443,7 +2471,7 @@
         <v>0.38407128933444701</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -2451,7 +2479,7 @@
         <v>0.38119604566972998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2459,7 +2487,7 @@
         <v>0.37953216374269</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -2467,7 +2495,7 @@
         <v>0.37607908660540201</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2475,7 +2503,7 @@
         <v>0.37227791701475899</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -2483,7 +2511,7 @@
         <v>0.372180451127819</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -2491,7 +2519,7 @@
         <v>0.36701475912002202</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2499,7 +2527,7 @@
         <v>0.36423698134224503</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -2507,7 +2535,7 @@
         <v>0.36409078251183502</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2515,7 +2543,7 @@
         <v>0.36219019771651401</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2523,7 +2551,7 @@
         <v>0.36219019771651401</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -2531,7 +2559,7 @@
         <v>0.35663464216095803</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -2539,7 +2567,7 @@
         <v>0.355367585630744</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2547,7 +2575,7 @@
         <v>0.35360623781676398</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2555,7 +2583,7 @@
         <v>0.35332080200501298</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -2563,7 +2591,7 @@
         <v>0.35171261487050998</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -2571,7 +2599,7 @@
         <v>0.34990253411305999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -2579,7 +2607,7 @@
         <v>0.34888610414926202</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -2587,7 +2615,7 @@
         <v>0.34888610414926202</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2595,7 +2623,7 @@
         <v>0.34844750765803401</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -2603,7 +2631,7 @@
         <v>0.34532859927596798</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -2611,7 +2639,7 @@
         <v>0.34454887218045099</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -2619,7 +2647,7 @@
         <v>0.34401280980228299</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -2627,7 +2655,7 @@
         <v>0.34220969089390102</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -2635,7 +2663,7 @@
         <v>0.34099136730715701</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2643,7 +2671,7 @@
         <v>0.34006544138123102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -2651,7 +2679,7 @@
         <v>0.34006544138123102</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -2659,7 +2687,7 @@
         <v>0.33928571428571402</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2667,7 +2695,7 @@
         <v>0.338700918964077</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2675,7 +2703,7 @@
         <v>0.33772626009468099</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -2683,7 +2711,7 @@
         <v>0.336556669451406</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2691,7 +2719,7 @@
         <v>0.33480228348649399</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -2699,7 +2727,7 @@
         <v>0.33480228348649399</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -2707,7 +2735,7 @@
         <v>0.33470481759955401</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -2715,7 +2743,7 @@
         <v>0.33421748816485602</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>163</v>
       </c>
@@ -2723,7 +2751,7 @@
         <v>0.332950431634642</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>115</v>
       </c>
@@ -2731,7 +2759,7 @@
         <v>0.33178084099136701</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -2739,7 +2767,7 @@
         <v>0.331384015594542</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -2747,7 +2775,7 @@
         <v>0.32861319966583102</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -2755,7 +2783,7 @@
         <v>0.32700501253132802</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -2763,7 +2791,7 @@
         <v>0.32700501253132802</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -2771,7 +2799,7 @@
         <v>0.32700501253132802</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -2779,7 +2807,7 @@
         <v>0.32685881370091902</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -2787,7 +2815,7 @@
         <v>0.32593288777499302</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2795,7 +2823,7 @@
         <v>0.324561403508772</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -2803,7 +2831,7 @@
         <v>0.32393483709273202</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -2811,7 +2839,7 @@
         <v>0.323886104149262</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -2819,7 +2847,7 @@
         <v>0.32018240044555801</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -2827,7 +2855,7 @@
         <v>0.32018240044555801</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -2835,7 +2863,7 @@
         <v>0.32018240044555801</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>105</v>
       </c>
@@ -2843,7 +2871,7 @@
         <v>0.32018240044555801</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -2851,7 +2879,7 @@
         <v>0.32018240044555801</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2859,7 +2887,7 @@
         <v>0.32003620161514901</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>168</v>
       </c>
@@ -2867,7 +2895,7 @@
         <v>0.32003620161514901</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -2875,7 +2903,7 @@
         <v>0.31998746867167899</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -2883,7 +2911,7 @@
         <v>0.31901280980228303</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -2891,7 +2919,7 @@
         <v>0.31755082149818997</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -2899,7 +2927,7 @@
         <v>0.31696602617655301</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>122</v>
       </c>
@@ -2907,7 +2935,7 @@
         <v>0.31696602617655301</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>44</v>
       </c>
@@ -2915,7 +2943,7 @@
         <v>0.31404204956836501</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -2923,7 +2951,7 @@
         <v>0.31392369813422399</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2931,7 +2959,7 @@
         <v>0.31316485658590898</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -2939,7 +2967,7 @@
         <v>0.31316485658590898</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -2947,7 +2975,7 @@
         <v>0.31306739069896999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2955,7 +2983,7 @@
         <v>0.31306739069896999</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>157</v>
       </c>
@@ -2963,7 +2991,7 @@
         <v>0.31306739069896999</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2971,7 +2999,7 @@
         <v>0.31111807296017802</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2979,7 +3007,7 @@
         <v>0.31111807296017802</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -2987,7 +3015,7 @@
         <v>0.31024087997772198</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -2995,7 +3023,7 @@
         <v>0.310143414090783</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>101</v>
       </c>
@@ -3003,7 +3031,7 @@
         <v>0.310143414090783</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -3011,7 +3039,7 @@
         <v>0.310143414090783</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>128</v>
       </c>
@@ -3019,7 +3047,7 @@
         <v>0.310143414090783</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>165</v>
       </c>
@@ -3027,7 +3055,7 @@
         <v>0.310143414090783</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -3035,7 +3063,7 @@
         <v>0.310143414090783</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -3043,7 +3071,7 @@
         <v>0.30799916457811199</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -3051,7 +3079,7 @@
         <v>0.299617098301309</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>70</v>
       </c>
@@ -3059,7 +3087,7 @@
         <v>0.29915297503016802</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>159</v>
       </c>
@@ -3067,7 +3095,7 @@
         <v>0.29718045112781899</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>120</v>
       </c>
@@ -3075,7 +3103,7 @@
         <v>0.294012809802283</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>61</v>
       </c>
@@ -3083,7 +3111,7 @@
         <v>0.293476747424116</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -3091,7 +3119,7 @@
         <v>0.291355704075002</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>86</v>
       </c>
@@ -3099,7 +3127,7 @@
         <v>0.29086837464030402</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>36</v>
       </c>
@@ -3107,7 +3135,7 @@
         <v>0.29053188526872697</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -3115,7 +3143,7 @@
         <v>0.28663324979114402</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -3123,7 +3151,7 @@
         <v>0.28648240972802302</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -3131,7 +3159,7 @@
         <v>0.28648240972802302</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -3139,7 +3167,7 @@
         <v>0.28453309198923199</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>169</v>
       </c>
@@ -3147,7 +3175,7 @@
         <v>0.28275549986076298</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -3155,7 +3183,7 @@
         <v>0.28246310219994403</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -3163,7 +3191,7 @@
         <v>0.28105680868838701</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3171,7 +3199,7 @@
         <v>0.28063445651164898</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>64</v>
       </c>
@@ -3179,7 +3207,7 @@
         <v>0.28063445651164898</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>76</v>
       </c>
@@ -3187,7 +3215,7 @@
         <v>0.28063445651164898</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>153</v>
       </c>
@@ -3195,7 +3223,7 @@
         <v>0.28063445651164898</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -3203,7 +3231,7 @@
         <v>0.27856446672236101</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -3211,7 +3239,7 @@
         <v>0.277373990531885</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>167</v>
       </c>
@@ -3219,7 +3247,7 @@
         <v>0.27669404993966401</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>141</v>
       </c>
@@ -3227,7 +3255,7 @@
         <v>0.27653856864383097</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>81</v>
       </c>
@@ -3235,7 +3263,7 @@
         <v>0.27571939107026799</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>37</v>
       </c>
@@ -3243,7 +3271,7 @@
         <v>0.274450013923698</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>66</v>
       </c>
@@ -3251,7 +3279,7 @@
         <v>0.274450013923698</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>55</v>
       </c>
@@ -3259,7 +3287,7 @@
         <v>0.27377007333147702</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -3267,7 +3295,7 @@
         <v>0.27377007333147702</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>42</v>
       </c>
@@ -3275,7 +3303,7 @@
         <v>0.272795414462081</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>63</v>
       </c>
@@ -3283,7 +3311,7 @@
         <v>0.272795414462081</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>80</v>
       </c>
@@ -3291,7 +3319,7 @@
         <v>0.27271651350598702</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>53</v>
       </c>
@@ -3299,7 +3327,7 @@
         <v>0.271665274296853</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>90</v>
       </c>
@@ -3307,7 +3335,7 @@
         <v>0.26744871437853901</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -3315,7 +3343,7 @@
         <v>0.26691033138401499</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>148</v>
       </c>
@@ -3323,7 +3351,7 @@
         <v>0.26691033138401499</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>103</v>
       </c>
@@ -3331,7 +3359,7 @@
         <v>0.266597048175995</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -3339,7 +3367,7 @@
         <v>0.26455258516662</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3347,7 +3375,7 @@
         <v>0.26374501067483502</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>96</v>
       </c>
@@ -3355,7 +3383,7 @@
         <v>0.26357792629722399</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>121</v>
       </c>
@@ -3363,7 +3391,7 @@
         <v>0.26231086976701001</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>127</v>
       </c>
@@ -3371,7 +3399,7 @@
         <v>0.26179569293604299</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -3379,7 +3407,7 @@
         <v>0.26162860855843301</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>51</v>
       </c>
@@ -3387,7 +3415,7 @@
         <v>0.26162860855843301</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>111</v>
       </c>
@@ -3395,7 +3423,7 @@
         <v>0.26162860855843301</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>57</v>
       </c>
@@ -3403,7 +3431,7 @@
         <v>0.25867678455397702</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>110</v>
       </c>
@@ -3411,7 +3439,7 @@
         <v>0.25772997308084999</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -3419,7 +3447,7 @@
         <v>0.25575280794578997</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>32</v>
       </c>
@@ -3427,7 +3455,7 @@
         <v>0.25575280794578997</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>87</v>
       </c>
@@ -3435,7 +3463,7 @@
         <v>0.25497308085027298</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>107</v>
       </c>
@@ -3443,7 +3471,7 @@
         <v>0.25497308085027298</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -3451,7 +3479,7 @@
         <v>0.25118583495776398</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>59</v>
       </c>
@@ -3459,7 +3487,7 @@
         <v>0.24785110925461801</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>94</v>
       </c>
@@ -3467,7 +3495,7 @@
         <v>0.24537965283579299</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -3475,7 +3503,7 @@
         <v>0.23660772301123101</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>29</v>
       </c>
@@ -3483,7 +3511,7 @@
         <v>0.236155202821869</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>60</v>
       </c>
@@ -3491,7 +3519,7 @@
         <v>0.23296435533277601</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>109</v>
       </c>
@@ -3499,7 +3527,7 @@
         <v>0.23296435533277601</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>170</v>
       </c>
@@ -3507,7 +3535,7 @@
         <v>0.23296435533277601</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3515,7 +3543,7 @@
         <v>0.23225656734428601</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -3523,7 +3551,7 @@
         <v>0.23004037872458899</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>134</v>
       </c>
@@ -3531,7 +3559,7 @@
         <v>0.23004037872458899</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>47</v>
       </c>
@@ -3539,7 +3567,7 @@
         <v>0.228357931866703</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>58</v>
       </c>
@@ -3547,7 +3575,7 @@
         <v>0.22711640211640199</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>108</v>
       </c>
@@ -3555,7 +3583,7 @@
         <v>0.21707741576162601</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>71</v>
       </c>
@@ -3563,7 +3591,7 @@
         <v>0.21613756613756499</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>100</v>
       </c>
@@ -3571,7 +3599,7 @@
         <v>0.210233918128654</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>124</v>
       </c>
@@ -3579,7 +3607,7 @@
         <v>0.20991599368792299</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -3587,7 +3615,7 @@
         <v>0.209672328970574</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>74</v>
       </c>
@@ -3595,7 +3623,7 @@
         <v>0.204799034623595</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>139</v>
       </c>
@@ -3603,7 +3631,7 @@
         <v>0.19964726631393201</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>102</v>
       </c>
@@ -3611,7 +3639,7 @@
         <v>0.195224382505084</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -3619,7 +3647,7 @@
         <v>0.19083841759280301</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>43</v>
       </c>
@@ -3627,7 +3655,7 @@
         <v>0.19083841759280301</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>48</v>
       </c>
@@ -3635,7 +3663,7 @@
         <v>0.19083841759280301</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>144</v>
       </c>
@@ -3643,7 +3671,7 @@
         <v>0.181100900399146</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>75</v>
       </c>
@@ -3651,7 +3679,7 @@
         <v>0.17191822147962499</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>151</v>
       </c>
@@ -3659,7 +3687,7 @@
         <v>0.15550450199572899</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -3667,7 +3695,7 @@
         <v>0.133088191860121</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -3675,7 +3703,7 @@
         <v>5.84795321637426E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>133</v>
       </c>
@@ -3683,7 +3711,7 @@
         <v>5.84795321637426E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>152</v>
       </c>
@@ -3691,7 +3719,7 @@
         <v>5.84795321637426E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>154</v>
       </c>
@@ -3708,20 +3736,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -3729,7 +3757,7 @@
         <v>7022.2450608364097</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -3737,7 +3765,7 @@
         <v>6228.8627450997401</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3745,7 +3773,7 @@
         <v>6137.0409733216602</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -3753,7 +3781,7 @@
         <v>6070.4370722516396</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -3761,7 +3789,7 @@
         <v>5326.6910498976904</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -3769,7 +3797,7 @@
         <v>5013.6651120933802</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3777,7 +3805,7 @@
         <v>4656.6604407099703</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -3785,7 +3813,7 @@
         <v>4108.87344443654</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -3793,7 +3821,7 @@
         <v>3124.7840946905699</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -3801,7 +3829,7 @@
         <v>3100.5541967903</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -3809,7 +3837,7 @@
         <v>2881.8134518154002</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3817,7 +3845,7 @@
         <v>2429.9538748832802</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -3825,7 +3853,7 @@
         <v>2240.6666666666601</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -3833,7 +3861,7 @@
         <v>2022.5678932178901</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -3841,7 +3869,7 @@
         <v>1986.6932466932401</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -3849,7 +3877,7 @@
         <v>1768.86017316017</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>164</v>
       </c>
@@ -3857,7 +3885,7 @@
         <v>1699.50862822576</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -3865,7 +3893,7 @@
         <v>1689.6339631850699</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -3873,7 +3901,7 @@
         <v>1650.3887146976399</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -3881,7 +3909,7 @@
         <v>1626.62529002529</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3889,7 +3917,7 @@
         <v>1494.6666666666599</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -3897,7 +3925,7 @@
         <v>1417.4412227922201</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -3905,7 +3933,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -3913,7 +3941,7 @@
         <v>1313.57213452512</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3921,7 +3949,7 @@
         <v>1124.9647990897899</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -3929,7 +3957,7 @@
         <v>1122.8920634920601</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -3937,7 +3965,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3945,7 +3973,7 @@
         <v>881.60372873453605</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -3953,7 +3981,7 @@
         <v>859.28119523119506</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -3961,7 +3989,7 @@
         <v>814.33333333333303</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -3969,7 +3997,7 @@
         <v>763.06861471861396</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -3977,7 +4005,7 @@
         <v>673.85210966924501</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3985,7 +4013,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -3993,7 +4021,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -4001,7 +4029,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -4009,7 +4037,7 @@
         <v>652.81455699742105</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -4017,7 +4045,7 @@
         <v>610.49242424242402</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -4025,7 +4053,7 @@
         <v>546.94945609945603</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -4033,7 +4061,7 @@
         <v>525.25116194520604</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -4041,7 +4069,7 @@
         <v>509.33333333333297</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -4049,7 +4077,7 @@
         <v>504.24284198851598</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -4057,7 +4085,7 @@
         <v>502.36394139707602</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -4065,7 +4093,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -4073,7 +4101,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -4081,7 +4109,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>111</v>
       </c>
@@ -4089,7 +4117,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -4097,7 +4125,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -4105,7 +4133,7 @@
         <v>468.775396825396</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -4113,7 +4141,7 @@
         <v>466.09610389610299</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -4121,7 +4149,7 @@
         <v>455.42217390796299</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>169</v>
       </c>
@@ -4129,7 +4157,7 @@
         <v>454.12893402837102</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>147</v>
       </c>
@@ -4137,7 +4165,7 @@
         <v>445.26886043756099</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -4145,7 +4173,7 @@
         <v>435.46631908240198</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -4153,7 +4181,7 @@
         <v>424.86522366522303</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -4161,7 +4189,7 @@
         <v>420.76709956709902</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -4169,7 +4197,7 @@
         <v>402.2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -4177,7 +4205,7 @@
         <v>374.81995654114598</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -4185,7 +4213,7 @@
         <v>374.71926406926298</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -4193,7 +4221,7 @@
         <v>374.38354978354897</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -4201,7 +4229,7 @@
         <v>373.452231102231</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -4209,7 +4237,7 @@
         <v>368.15238095238101</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>138</v>
       </c>
@@ -4217,7 +4245,7 @@
         <v>367.45136950136902</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -4225,7 +4253,7 @@
         <v>367.433333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -4233,7 +4261,7 @@
         <v>366.25210966924499</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>140</v>
       </c>
@@ -4241,7 +4269,7 @@
         <v>365.36752136752102</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -4249,7 +4277,7 @@
         <v>364.91336996336997</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4257,7 +4285,7 @@
         <v>363.90983880983902</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -4265,7 +4293,7 @@
         <v>360.95136950136902</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -4273,7 +4301,7 @@
         <v>355.4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -4281,7 +4309,7 @@
         <v>355.18835874270599</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -4289,7 +4317,7 @@
         <v>354.11666666666599</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -4297,7 +4325,7 @@
         <v>351.39999999999901</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -4305,7 +4333,7 @@
         <v>350.81950435185701</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>149</v>
       </c>
@@ -4313,7 +4341,7 @@
         <v>346.37936507936399</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -4321,7 +4349,7 @@
         <v>345.68571428571403</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -4329,7 +4357,7 @@
         <v>345.68571428571403</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -4337,7 +4365,7 @@
         <v>345.60808080807999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -4345,7 +4373,7 @@
         <v>342.83333333333297</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -4353,7 +4381,7 @@
         <v>341.666666666666</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -4361,7 +4389,7 @@
         <v>340.33333333333297</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -4369,7 +4397,7 @@
         <v>337.666666666666</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>99</v>
       </c>
@@ -4377,7 +4405,7 @@
         <v>337.053846153846</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -4385,7 +4413,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>156</v>
       </c>
@@ -4393,7 +4421,7 @@
         <v>336.849999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -4401,7 +4429,7 @@
         <v>336.73333333333301</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -4409,7 +4437,7 @@
         <v>336.666666666666</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -4417,7 +4445,7 @@
         <v>336.4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>55</v>
       </c>
@@ -4425,7 +4453,7 @@
         <v>336.166666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -4433,7 +4461,7 @@
         <v>336.166666666666</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -4441,7 +4469,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>63</v>
       </c>
@@ -4449,7 +4477,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>108</v>
       </c>
@@ -4457,7 +4485,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>160</v>
       </c>
@@ -4465,7 +4493,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>150</v>
       </c>
@@ -4473,7 +4501,7 @@
         <v>335.73333333333301</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -4481,7 +4509,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -4489,7 +4517,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -4497,7 +4525,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -4505,7 +4533,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -4513,7 +4541,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -4521,7 +4549,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -4529,7 +4557,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -4537,7 +4565,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -4545,7 +4573,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -4553,7 +4581,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -4561,7 +4589,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -4569,7 +4597,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -4577,7 +4605,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -4585,7 +4613,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -4593,7 +4621,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -4601,7 +4629,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -4609,7 +4637,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -4617,7 +4645,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -4625,7 +4653,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -4633,7 +4661,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -4641,7 +4669,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>37</v>
       </c>
@@ -4649,7 +4677,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>39</v>
       </c>
@@ -4657,7 +4685,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>43</v>
       </c>
@@ -4665,7 +4693,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>45</v>
       </c>
@@ -4673,7 +4701,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -4681,7 +4709,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>51</v>
       </c>
@@ -4689,7 +4717,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>58</v>
       </c>
@@ -4697,7 +4725,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>60</v>
       </c>
@@ -4705,7 +4733,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>64</v>
       </c>
@@ -4713,7 +4741,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>65</v>
       </c>
@@ -4721,7 +4749,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>67</v>
       </c>
@@ -4729,7 +4757,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>74</v>
       </c>
@@ -4737,7 +4765,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -4745,7 +4773,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -4753,7 +4781,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -4761,7 +4789,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -4769,7 +4797,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>80</v>
       </c>
@@ -4777,7 +4805,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>83</v>
       </c>
@@ -4785,7 +4813,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>85</v>
       </c>
@@ -4793,7 +4821,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>87</v>
       </c>
@@ -4801,7 +4829,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -4809,7 +4837,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>90</v>
       </c>
@@ -4817,7 +4845,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>92</v>
       </c>
@@ -4825,7 +4853,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>93</v>
       </c>
@@ -4833,7 +4861,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>101</v>
       </c>
@@ -4841,7 +4869,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>102</v>
       </c>
@@ -4849,7 +4877,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>105</v>
       </c>
@@ -4857,7 +4885,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>107</v>
       </c>
@@ -4865,7 +4893,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>109</v>
       </c>
@@ -4873,7 +4901,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>110</v>
       </c>
@@ -4881,7 +4909,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>112</v>
       </c>
@@ -4889,7 +4917,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>115</v>
       </c>
@@ -4897,7 +4925,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>116</v>
       </c>
@@ -4905,7 +4933,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>117</v>
       </c>
@@ -4913,7 +4941,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>118</v>
       </c>
@@ -4921,7 +4949,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>119</v>
       </c>
@@ -4929,7 +4957,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>122</v>
       </c>
@@ -4937,7 +4965,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>128</v>
       </c>
@@ -4945,7 +4973,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>131</v>
       </c>
@@ -4953,7 +4981,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>134</v>
       </c>
@@ -4961,7 +4989,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>136</v>
       </c>
@@ -4969,7 +4997,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>141</v>
       </c>
@@ -4977,7 +5005,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>143</v>
       </c>
@@ -4985,7 +5013,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>153</v>
       </c>
@@ -4993,7 +5021,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -5001,7 +5029,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -5009,7 +5037,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -5017,7 +5045,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -5025,7 +5053,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -5033,7 +5061,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -5041,7 +5069,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>170</v>
       </c>
@@ -5049,7 +5077,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>171</v>
       </c>
@@ -5057,7 +5085,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>125</v>
       </c>
@@ -5065,7 +5093,7 @@
         <v>334.99999999999898</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -5073,7 +5101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>133</v>
       </c>
@@ -5081,7 +5109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>152</v>
       </c>
@@ -5089,7 +5117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>154</v>
       </c>

--- a/ComplexNetwork1/src/result/CA.xlsx
+++ b/ComplexNetwork1/src/result/CA.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="connected component" sheetId="5" r:id="rId1"/>
     <sheet name="degree" sheetId="2" r:id="rId2"/>
     <sheet name="clossness" sheetId="3" r:id="rId3"/>
     <sheet name="betweenness" sheetId="1" r:id="rId4"/>
+    <sheet name="density" sheetId="6" r:id="rId5"/>
+    <sheet name="clustering coefficient" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="351">
   <si>
     <t>[CAYWK]</t>
   </si>
@@ -553,12 +555,534 @@
   </si>
   <si>
     <t>total edges is: 370</t>
+  </si>
+  <si>
+    <t>density: 0.025159798721610227</t>
+  </si>
+  <si>
+    <t>the average clustering coefficient is: 0.43987601150772704</t>
+  </si>
+  <si>
+    <t>CAYWK: 0.3090909090909091</t>
+  </si>
+  <si>
+    <t>CAYWJ: 0.0</t>
+  </si>
+  <si>
+    <t>CAYWG: 0.19883040935672514</t>
+  </si>
+  <si>
+    <t>CAYFS: 0.0</t>
+  </si>
+  <si>
+    <t>CAYFO: 1.0</t>
+  </si>
+  <si>
+    <t>CAYGK: 0.0</t>
+  </si>
+  <si>
+    <t>CAYOP: 1.0</t>
+  </si>
+  <si>
+    <t>CAYGH: 1.0</t>
+  </si>
+  <si>
+    <t>CAYOJ: 1.0</t>
+  </si>
+  <si>
+    <t>CAYWP: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYWL: 1.0</t>
+  </si>
+  <si>
+    <t>CAYXL: 0.15151515151515152</t>
+  </si>
+  <si>
+    <t>CAYGZ: 0.0</t>
+  </si>
+  <si>
+    <t>CAYPC: 0.0</t>
+  </si>
+  <si>
+    <t>CAYXJ: 0.6</t>
+  </si>
+  <si>
+    <t>CAYGX: 1.0</t>
+  </si>
+  <si>
+    <t>CAYGW: 0.26666666666666666</t>
+  </si>
+  <si>
+    <t>CAYXH: 0.0</t>
+  </si>
+  <si>
+    <t>CAYGV: 1.0</t>
+  </si>
+  <si>
+    <t>CAYGT: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYXE: 1.0</t>
+  </si>
+  <si>
+    <t>CAYXC: 1.0</t>
+  </si>
+  <si>
+    <t>CAYGR: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYGP: 1.0</t>
+  </si>
+  <si>
+    <t>CAYOW: 0.34285714285714286</t>
+  </si>
+  <si>
+    <t>CAYGL: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYHK: 1.0</t>
+  </si>
+  <si>
+    <t>CAYPR: 0.0</t>
+  </si>
+  <si>
+    <t>CAYXY: 0.8</t>
+  </si>
+  <si>
+    <t>CAYHI: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYXX: 1.0</t>
+  </si>
+  <si>
+    <t>CAYPO: 0.0</t>
+  </si>
+  <si>
+    <t>CAYPN: 1.0</t>
+  </si>
+  <si>
+    <t>CAYXU: 1.0</t>
+  </si>
+  <si>
+    <t>CAYPM: 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>CAYXT: 1.0</t>
+  </si>
+  <si>
+    <t>CAYHD: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYPL: 1.0</t>
+  </si>
+  <si>
+    <t>CAYXS: 0.39285714285714285</t>
+  </si>
+  <si>
+    <t>CAZRJ: 1.0</t>
+  </si>
+  <si>
+    <t>CAYPH: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYXP: 0.0</t>
+  </si>
+  <si>
+    <t>CAYXN: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYUB: 0.0</t>
+  </si>
+  <si>
+    <t>CAYDQ: 0.0</t>
+  </si>
+  <si>
+    <t>CAYDP: 0.0</t>
+  </si>
+  <si>
+    <t>CAYLW: 0.5</t>
+  </si>
+  <si>
+    <t>CAZFN: 0.0</t>
+  </si>
+  <si>
+    <t>CAZFM: 0.0</t>
+  </si>
+  <si>
+    <t>CAYTZ: 0.2857142857142857</t>
+  </si>
+  <si>
+    <t>CAYUY: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYUX: 1.0</t>
+  </si>
+  <si>
+    <t>CAYEG: 0.21645021645021645</t>
+  </si>
+  <si>
+    <t>CAYMO: 0.0</t>
+  </si>
+  <si>
+    <t>CAYMM: 0.4666666666666667</t>
+  </si>
+  <si>
+    <t>CAYUT: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYUL: 0.15692307692307692</t>
+  </si>
+  <si>
+    <t>CAYNA: 0.0</t>
+  </si>
+  <si>
+    <t>CAZPB: 0.0</t>
+  </si>
+  <si>
+    <t>CAYEV: 0.09523809523809523</t>
+  </si>
+  <si>
+    <t>CAYER: 1.0</t>
+  </si>
+  <si>
+    <t>CAYVB: 0.4</t>
+  </si>
+  <si>
+    <t>CAYMT: 0.0</t>
+  </si>
+  <si>
+    <t>CAYEK: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYFJ: 0.0</t>
+  </si>
+  <si>
+    <t>CAYVZ: 1.0</t>
+  </si>
+  <si>
+    <t>CAYFH: 0.0</t>
+  </si>
+  <si>
+    <t>CAYFC: 1.0</t>
+  </si>
+  <si>
+    <t>CAYVR: 0.11612903225806452</t>
+  </si>
+  <si>
+    <t>CAYFB: 0.027777777777777776</t>
+  </si>
+  <si>
+    <t>CAYVQ: 0.16666666666666666</t>
+  </si>
+  <si>
+    <t>CAYFA: 0.0</t>
+  </si>
+  <si>
+    <t>CAYVP: 0.10714285714285714</t>
+  </si>
+  <si>
+    <t>CAYVO: 0.16666666666666666</t>
+  </si>
+  <si>
+    <t>CAYVM: 0.0</t>
+  </si>
+  <si>
+    <t>CAYNC: 0.0</t>
+  </si>
+  <si>
+    <t>CAYSG: 0.0</t>
+  </si>
+  <si>
+    <t>CAYBR: 0.0</t>
+  </si>
+  <si>
+    <t>CAYSB: 0.6</t>
+  </si>
+  <si>
+    <t>CAYBL: 1.0</t>
+  </si>
+  <si>
+    <t>CAYJT: 1.0</t>
+  </si>
+  <si>
+    <t>CAYBK: 0.5</t>
+  </si>
+  <si>
+    <t>CAYBG: 0.8</t>
+  </si>
+  <si>
+    <t>CAYCG: 1.0</t>
+  </si>
+  <si>
+    <t>CAYKL: 0.5</t>
+  </si>
+  <si>
+    <t>CAYCD: 1.0</t>
+  </si>
+  <si>
+    <t>CAYCB: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYKG: 0.0</t>
+  </si>
+  <si>
+    <t>CAYKF: 0.0</t>
+  </si>
+  <si>
+    <t>CAYSM: 0.5</t>
+  </si>
+  <si>
+    <t>CAZUM: 1.0</t>
+  </si>
+  <si>
+    <t>CAYSK: 0.0</t>
+  </si>
+  <si>
+    <t>CAYSJ: 1.0</t>
+  </si>
+  <si>
+    <t>CAYKA: 1.0</t>
+  </si>
+  <si>
+    <t>CAYBX: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYTH: 0.4666666666666667</t>
+  </si>
+  <si>
+    <t>CAYTE: 0.0</t>
+  </si>
+  <si>
+    <t>CAYCS: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYCO: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYCL: 0.0</t>
+  </si>
+  <si>
+    <t>CAZEM: 0.0</t>
+  </si>
+  <si>
+    <t>CAZMT: 0.0</t>
+  </si>
+  <si>
+    <t>CAYSY: 1.0</t>
+  </si>
+  <si>
+    <t>CAYKQ: 0.0</t>
+  </si>
+  <si>
+    <t>CAYDF: 0.6</t>
+  </si>
+  <si>
+    <t>CAYLL: 0.0</t>
+  </si>
+  <si>
+    <t>CAYTS: 0.4</t>
+  </si>
+  <si>
+    <t>CAYTQ: 0.0</t>
+  </si>
+  <si>
+    <t>CAYLH: 0.0</t>
+  </si>
+  <si>
+    <t>CAYTL: 1.0</t>
+  </si>
+  <si>
+    <t>CAYLC: 0.0</t>
+  </si>
+  <si>
+    <t>CAYCY: 0.0</t>
+  </si>
+  <si>
+    <t>CAYQD: 1.0</t>
+  </si>
+  <si>
+    <t>CAYHZ: 0.26666666666666666</t>
+  </si>
+  <si>
+    <t>CAYQB: 0.27472527472527475</t>
+  </si>
+  <si>
+    <t>CAYHY: 1.0</t>
+  </si>
+  <si>
+    <t>CAYYJ: 1.0</t>
+  </si>
+  <si>
+    <t>CAYYH: 1.0</t>
+  </si>
+  <si>
+    <t>CAYYG: 1.0</t>
+  </si>
+  <si>
+    <t>CAYYF: 0.0</t>
+  </si>
+  <si>
+    <t>CAYHU: 0.5</t>
+  </si>
+  <si>
+    <t>CAYYE: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYYD: 1.0</t>
+  </si>
+  <si>
+    <t>CAYYC: 0.1310483870967742</t>
+  </si>
+  <si>
+    <t>CAYHR: 0.0</t>
+  </si>
+  <si>
+    <t>CAYYB: 1.0</t>
+  </si>
+  <si>
+    <t>CAYPY: 0.0</t>
+  </si>
+  <si>
+    <t>CAYPX: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYPW: 0.0</t>
+  </si>
+  <si>
+    <t>CAZBF: 0.0</t>
+  </si>
+  <si>
+    <t>CAYHM: 0.5</t>
+  </si>
+  <si>
+    <t>CAYQU: 1.0</t>
+  </si>
+  <si>
+    <t>CAYQT: 0.16666666666666666</t>
+  </si>
+  <si>
+    <t>CAYIK: 0.0</t>
+  </si>
+  <si>
+    <t>CAYAC: 1.0</t>
+  </si>
+  <si>
+    <t>CAYYZ: 0.16009852216748768</t>
+  </si>
+  <si>
+    <t>CAYQR: 1.0</t>
+  </si>
+  <si>
+    <t>CAYQQ: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYYY: 0.7333333333333333</t>
+  </si>
+  <si>
+    <t>CAYIF: 0.0</t>
+  </si>
+  <si>
+    <t>CAYQM: 0.7</t>
+  </si>
+  <si>
+    <t>CAYYU: 1.0</t>
+  </si>
+  <si>
+    <t>CAYYT: 0.3888888888888889</t>
+  </si>
+  <si>
+    <t>CAYQL: 0.0</t>
+  </si>
+  <si>
+    <t>CAZKE: 0.0</t>
+  </si>
+  <si>
+    <t>CAYQK: 0.0</t>
+  </si>
+  <si>
+    <t>CAYYR: 0.2222222222222222</t>
+  </si>
+  <si>
+    <t>CAYYQ: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAZSJ: 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>CAYQG: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYQF: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYAT: 0.0</t>
+  </si>
+  <si>
+    <t>CAYRB: 0.0</t>
+  </si>
+  <si>
+    <t>CAYRA: 0.0</t>
+  </si>
+  <si>
+    <t>CAYZG: 0.0</t>
+  </si>
+  <si>
+    <t>CAYZF: 0.08823529411764706</t>
+  </si>
+  <si>
+    <t>CAYAM: 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>CAYQZ: 1.0</t>
+  </si>
+  <si>
+    <t>CAYQY: 1.0</t>
+  </si>
+  <si>
+    <t>CAYQX: 1.0</t>
+  </si>
+  <si>
+    <t>CAYIO: 0.0</t>
+  </si>
+  <si>
+    <t>CAYAG: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYRT: 0.18181818181818182</t>
+  </si>
+  <si>
+    <t>CAYBC: 1.0</t>
+  </si>
+  <si>
+    <t>CAYZV: 0.3111111111111111</t>
+  </si>
+  <si>
+    <t>CAYZT: 0.0</t>
+  </si>
+  <si>
+    <t>CAYRL: 0.4</t>
+  </si>
+  <si>
+    <t>CAYZS: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>CAYZR: 0.0</t>
+  </si>
+  <si>
+    <t>CAYAY: 0.6666666666666666</t>
+  </si>
+  <si>
+    <t>CAYAX: 1.0</t>
+  </si>
+  <si>
+    <t>CAYZP: 0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,7 +1143,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -897,39 +1421,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -940,20 +1464,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -961,7 +1485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -969,7 +1493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -977,7 +1501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -985,7 +1509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -993,7 +1517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +1525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -1009,7 +1533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1017,7 +1541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -1025,7 +1549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -1033,7 +1557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -1041,7 +1565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -1065,7 +1589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -1073,7 +1597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1081,7 +1605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1089,7 +1613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -1097,7 +1621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -1105,7 +1629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1113,7 +1637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1121,7 +1645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -1129,7 +1653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1137,7 +1661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1145,7 +1669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1153,7 +1677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1161,7 +1685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -1169,7 +1693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -1177,7 +1701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -1185,7 +1709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -1193,7 +1717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1201,7 +1725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1209,7 +1733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1217,7 +1741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1225,7 +1749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -1233,7 +1757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -1241,7 +1765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -1249,7 +1773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>136</v>
       </c>
@@ -1257,7 +1781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>140</v>
       </c>
@@ -1265,7 +1789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1273,7 +1797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1281,7 +1805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1289,7 +1813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -1297,7 +1821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -1305,7 +1829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -1313,7 +1837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -1321,7 +1845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -1329,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -1337,7 +1861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -1345,7 +1869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -1353,7 +1877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -1361,7 +1885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>130</v>
       </c>
@@ -1369,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>137</v>
       </c>
@@ -1377,7 +1901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>147</v>
       </c>
@@ -1385,7 +1909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>148</v>
       </c>
@@ -1393,7 +1917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>156</v>
       </c>
@@ -1401,7 +1925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -1409,7 +1933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -1417,7 +1941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1425,7 +1949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -1433,7 +1957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -1441,7 +1965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -1449,7 +1973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -1457,7 +1981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -1465,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -1473,7 +1997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -1481,7 +2005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -1489,7 +2013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -1497,7 +2021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -1505,7 +2029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -1513,7 +2037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -1521,7 +2045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -1529,7 +2053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -1537,7 +2061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -1545,7 +2069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -1553,7 +2077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -1561,7 +2085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>93</v>
       </c>
@@ -1569,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -1577,7 +2101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -1585,7 +2109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -1593,7 +2117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>109</v>
       </c>
@@ -1601,7 +2125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -1609,7 +2133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -1617,7 +2141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -1625,7 +2149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -1633,7 +2157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -1641,7 +2165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>122</v>
       </c>
@@ -1649,7 +2173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -1657,7 +2181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>145</v>
       </c>
@@ -1665,7 +2189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>149</v>
       </c>
@@ -1673,7 +2197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>150</v>
       </c>
@@ -1681,7 +2205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>159</v>
       </c>
@@ -1689,7 +2213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -1697,7 +2221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>169</v>
       </c>
@@ -1705,7 +2229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>170</v>
       </c>
@@ -1713,7 +2237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -1721,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -1729,7 +2253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -1737,7 +2261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -1745,7 +2269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -1753,7 +2277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -1761,7 +2285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -1769,7 +2293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -1777,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -1785,7 +2309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>32</v>
       </c>
@@ -1793,7 +2317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>37</v>
       </c>
@@ -1801,7 +2325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>39</v>
       </c>
@@ -1809,7 +2333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>41</v>
       </c>
@@ -1817,7 +2341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -1825,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>47</v>
       </c>
@@ -1833,7 +2357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>51</v>
       </c>
@@ -1841,7 +2365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>57</v>
       </c>
@@ -1849,7 +2373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>62</v>
       </c>
@@ -1857,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>66</v>
       </c>
@@ -1865,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>71</v>
       </c>
@@ -1873,7 +2397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>79</v>
       </c>
@@ -1881,7 +2405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>80</v>
       </c>
@@ -1889,7 +2413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -1897,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -1905,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>90</v>
       </c>
@@ -1913,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>91</v>
       </c>
@@ -1921,7 +2445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>96</v>
       </c>
@@ -1929,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -1937,7 +2461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>100</v>
       </c>
@@ -1945,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>102</v>
       </c>
@@ -1953,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>108</v>
       </c>
@@ -1961,7 +2485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>111</v>
       </c>
@@ -1969,7 +2493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>124</v>
       </c>
@@ -1977,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>125</v>
       </c>
@@ -1985,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>126</v>
       </c>
@@ -1993,7 +2517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -2001,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -2009,7 +2533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -2017,7 +2541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>139</v>
       </c>
@@ -2025,7 +2549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -2033,7 +2557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -2041,7 +2565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -2049,7 +2573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>157</v>
       </c>
@@ -2057,7 +2581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>158</v>
       </c>
@@ -2065,7 +2589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -2073,7 +2597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -2081,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -2089,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -2097,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -2105,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -2113,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -2121,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -2129,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>43</v>
       </c>
@@ -2137,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>45</v>
       </c>
@@ -2145,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>48</v>
       </c>
@@ -2153,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>58</v>
       </c>
@@ -2161,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>64</v>
       </c>
@@ -2169,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>74</v>
       </c>
@@ -2177,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>75</v>
       </c>
@@ -2185,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>76</v>
       </c>
@@ -2193,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>77</v>
       </c>
@@ -2201,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>87</v>
       </c>
@@ -2209,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>88</v>
       </c>
@@ -2217,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>101</v>
       </c>
@@ -2225,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>105</v>
       </c>
@@ -2233,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>107</v>
       </c>
@@ -2241,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>110</v>
       </c>
@@ -2249,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>119</v>
       </c>
@@ -2257,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>128</v>
       </c>
@@ -2265,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>133</v>
       </c>
@@ -2273,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>143</v>
       </c>
@@ -2281,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>152</v>
       </c>
@@ -2289,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>153</v>
       </c>
@@ -2297,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>154</v>
       </c>
@@ -2305,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>165</v>
       </c>
@@ -2313,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -2321,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -2338,20 +2862,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -2359,7 +2883,7 @@
         <v>0.50561125034809096</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -2367,7 +2891,7 @@
         <v>0.50214424951266901</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -2375,7 +2899,7 @@
         <v>0.4901141743247</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -2383,7 +2907,7 @@
         <v>0.48563074352547903</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2391,7 +2915,7 @@
         <v>0.47218045112781898</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2399,7 +2923,7 @@
         <v>0.46759955444165902</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2407,7 +2931,7 @@
         <v>0.46759955444165902</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -2415,7 +2939,7 @@
         <v>0.41769702032859901</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -2423,7 +2947,7 @@
         <v>0.41501670843776101</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2431,7 +2955,7 @@
         <v>0.40064049011417402</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -2439,7 +2963,7 @@
         <v>0.39132553606237802</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2447,7 +2971,7 @@
         <v>0.38533834586466198</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -2455,7 +2979,7 @@
         <v>0.38533834586466198</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2463,7 +2987,7 @@
         <v>0.384851016429964</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -2471,7 +2995,7 @@
         <v>0.38407128933444701</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -2479,7 +3003,7 @@
         <v>0.38119604566972998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2487,7 +3011,7 @@
         <v>0.37953216374269</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -2495,7 +3019,7 @@
         <v>0.37607908660540201</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2503,7 +3027,7 @@
         <v>0.37227791701475899</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -2511,7 +3035,7 @@
         <v>0.372180451127819</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -2519,7 +3043,7 @@
         <v>0.36701475912002202</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2527,7 +3051,7 @@
         <v>0.36423698134224503</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -2535,7 +3059,7 @@
         <v>0.36409078251183502</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2543,7 +3067,7 @@
         <v>0.36219019771651401</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2551,7 +3075,7 @@
         <v>0.36219019771651401</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -2559,7 +3083,7 @@
         <v>0.35663464216095803</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -2567,7 +3091,7 @@
         <v>0.355367585630744</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2575,7 +3099,7 @@
         <v>0.35360623781676398</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2583,7 +3107,7 @@
         <v>0.35332080200501298</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -2591,7 +3115,7 @@
         <v>0.35171261487050998</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -2599,7 +3123,7 @@
         <v>0.34990253411305999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -2607,7 +3131,7 @@
         <v>0.34888610414926202</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -2615,7 +3139,7 @@
         <v>0.34888610414926202</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2623,7 +3147,7 @@
         <v>0.34844750765803401</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -2631,7 +3155,7 @@
         <v>0.34532859927596798</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -2639,7 +3163,7 @@
         <v>0.34454887218045099</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -2647,7 +3171,7 @@
         <v>0.34401280980228299</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -2655,7 +3179,7 @@
         <v>0.34220969089390102</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -2663,7 +3187,7 @@
         <v>0.34099136730715701</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2671,7 +3195,7 @@
         <v>0.34006544138123102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -2679,7 +3203,7 @@
         <v>0.34006544138123102</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -2687,7 +3211,7 @@
         <v>0.33928571428571402</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2695,7 +3219,7 @@
         <v>0.338700918964077</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2703,7 +3227,7 @@
         <v>0.33772626009468099</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -2711,7 +3235,7 @@
         <v>0.336556669451406</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2719,7 +3243,7 @@
         <v>0.33480228348649399</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -2727,7 +3251,7 @@
         <v>0.33480228348649399</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -2735,7 +3259,7 @@
         <v>0.33470481759955401</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -2743,7 +3267,7 @@
         <v>0.33421748816485602</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>163</v>
       </c>
@@ -2751,7 +3275,7 @@
         <v>0.332950431634642</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>115</v>
       </c>
@@ -2759,7 +3283,7 @@
         <v>0.33178084099136701</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -2767,7 +3291,7 @@
         <v>0.331384015594542</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -2775,7 +3299,7 @@
         <v>0.32861319966583102</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -2783,7 +3307,7 @@
         <v>0.32700501253132802</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -2791,7 +3315,7 @@
         <v>0.32700501253132802</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -2799,7 +3323,7 @@
         <v>0.32700501253132802</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -2807,7 +3331,7 @@
         <v>0.32685881370091902</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -2815,7 +3339,7 @@
         <v>0.32593288777499302</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2823,7 +3347,7 @@
         <v>0.324561403508772</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -2831,7 +3355,7 @@
         <v>0.32393483709273202</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -2839,7 +3363,7 @@
         <v>0.323886104149262</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -2847,7 +3371,7 @@
         <v>0.32018240044555801</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -2855,7 +3379,7 @@
         <v>0.32018240044555801</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -2863,7 +3387,7 @@
         <v>0.32018240044555801</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>105</v>
       </c>
@@ -2871,7 +3395,7 @@
         <v>0.32018240044555801</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -2879,7 +3403,7 @@
         <v>0.32018240044555801</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2887,7 +3411,7 @@
         <v>0.32003620161514901</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>168</v>
       </c>
@@ -2895,7 +3419,7 @@
         <v>0.32003620161514901</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -2903,7 +3427,7 @@
         <v>0.31998746867167899</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -2911,7 +3435,7 @@
         <v>0.31901280980228303</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -2919,7 +3443,7 @@
         <v>0.31755082149818997</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -2927,7 +3451,7 @@
         <v>0.31696602617655301</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>122</v>
       </c>
@@ -2935,7 +3459,7 @@
         <v>0.31696602617655301</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>44</v>
       </c>
@@ -2943,7 +3467,7 @@
         <v>0.31404204956836501</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -2951,7 +3475,7 @@
         <v>0.31392369813422399</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2959,7 +3483,7 @@
         <v>0.31316485658590898</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -2967,7 +3491,7 @@
         <v>0.31316485658590898</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -2975,7 +3499,7 @@
         <v>0.31306739069896999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2983,7 +3507,7 @@
         <v>0.31306739069896999</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>157</v>
       </c>
@@ -2991,7 +3515,7 @@
         <v>0.31306739069896999</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2999,7 +3523,7 @@
         <v>0.31111807296017802</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -3007,7 +3531,7 @@
         <v>0.31111807296017802</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -3015,7 +3539,7 @@
         <v>0.31024087997772198</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -3023,7 +3547,7 @@
         <v>0.310143414090783</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>101</v>
       </c>
@@ -3031,7 +3555,7 @@
         <v>0.310143414090783</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -3039,7 +3563,7 @@
         <v>0.310143414090783</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>128</v>
       </c>
@@ -3047,7 +3571,7 @@
         <v>0.310143414090783</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>165</v>
       </c>
@@ -3055,7 +3579,7 @@
         <v>0.310143414090783</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -3063,7 +3587,7 @@
         <v>0.310143414090783</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -3071,7 +3595,7 @@
         <v>0.30799916457811199</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -3079,7 +3603,7 @@
         <v>0.299617098301309</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>70</v>
       </c>
@@ -3087,7 +3611,7 @@
         <v>0.29915297503016802</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>159</v>
       </c>
@@ -3095,7 +3619,7 @@
         <v>0.29718045112781899</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>120</v>
       </c>
@@ -3103,7 +3627,7 @@
         <v>0.294012809802283</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>61</v>
       </c>
@@ -3111,7 +3635,7 @@
         <v>0.293476747424116</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -3119,7 +3643,7 @@
         <v>0.291355704075002</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>86</v>
       </c>
@@ -3127,7 +3651,7 @@
         <v>0.29086837464030402</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>36</v>
       </c>
@@ -3135,7 +3659,7 @@
         <v>0.29053188526872697</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -3143,7 +3667,7 @@
         <v>0.28663324979114402</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -3151,7 +3675,7 @@
         <v>0.28648240972802302</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -3159,7 +3683,7 @@
         <v>0.28648240972802302</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -3167,7 +3691,7 @@
         <v>0.28453309198923199</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>169</v>
       </c>
@@ -3175,7 +3699,7 @@
         <v>0.28275549986076298</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -3183,7 +3707,7 @@
         <v>0.28246310219994403</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -3191,7 +3715,7 @@
         <v>0.28105680868838701</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3199,7 +3723,7 @@
         <v>0.28063445651164898</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>64</v>
       </c>
@@ -3207,7 +3731,7 @@
         <v>0.28063445651164898</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>76</v>
       </c>
@@ -3215,7 +3739,7 @@
         <v>0.28063445651164898</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>153</v>
       </c>
@@ -3223,7 +3747,7 @@
         <v>0.28063445651164898</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -3231,7 +3755,7 @@
         <v>0.27856446672236101</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -3239,7 +3763,7 @@
         <v>0.277373990531885</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>167</v>
       </c>
@@ -3247,7 +3771,7 @@
         <v>0.27669404993966401</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>141</v>
       </c>
@@ -3255,7 +3779,7 @@
         <v>0.27653856864383097</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>81</v>
       </c>
@@ -3263,7 +3787,7 @@
         <v>0.27571939107026799</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>37</v>
       </c>
@@ -3271,7 +3795,7 @@
         <v>0.274450013923698</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>66</v>
       </c>
@@ -3279,7 +3803,7 @@
         <v>0.274450013923698</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>55</v>
       </c>
@@ -3287,7 +3811,7 @@
         <v>0.27377007333147702</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -3295,7 +3819,7 @@
         <v>0.27377007333147702</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>42</v>
       </c>
@@ -3303,7 +3827,7 @@
         <v>0.272795414462081</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>63</v>
       </c>
@@ -3311,7 +3835,7 @@
         <v>0.272795414462081</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>80</v>
       </c>
@@ -3319,7 +3843,7 @@
         <v>0.27271651350598702</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>53</v>
       </c>
@@ -3327,7 +3851,7 @@
         <v>0.271665274296853</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>90</v>
       </c>
@@ -3335,7 +3859,7 @@
         <v>0.26744871437853901</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -3343,7 +3867,7 @@
         <v>0.26691033138401499</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>148</v>
       </c>
@@ -3351,7 +3875,7 @@
         <v>0.26691033138401499</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>103</v>
       </c>
@@ -3359,7 +3883,7 @@
         <v>0.266597048175995</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -3367,7 +3891,7 @@
         <v>0.26455258516662</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3375,7 +3899,7 @@
         <v>0.26374501067483502</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>96</v>
       </c>
@@ -3383,7 +3907,7 @@
         <v>0.26357792629722399</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>121</v>
       </c>
@@ -3391,7 +3915,7 @@
         <v>0.26231086976701001</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>127</v>
       </c>
@@ -3399,7 +3923,7 @@
         <v>0.26179569293604299</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -3407,7 +3931,7 @@
         <v>0.26162860855843301</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>51</v>
       </c>
@@ -3415,7 +3939,7 @@
         <v>0.26162860855843301</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>111</v>
       </c>
@@ -3423,7 +3947,7 @@
         <v>0.26162860855843301</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>57</v>
       </c>
@@ -3431,7 +3955,7 @@
         <v>0.25867678455397702</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>110</v>
       </c>
@@ -3439,7 +3963,7 @@
         <v>0.25772997308084999</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -3447,7 +3971,7 @@
         <v>0.25575280794578997</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>32</v>
       </c>
@@ -3455,7 +3979,7 @@
         <v>0.25575280794578997</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>87</v>
       </c>
@@ -3463,7 +3987,7 @@
         <v>0.25497308085027298</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>107</v>
       </c>
@@ -3471,7 +3995,7 @@
         <v>0.25497308085027298</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -3479,7 +4003,7 @@
         <v>0.25118583495776398</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>59</v>
       </c>
@@ -3487,7 +4011,7 @@
         <v>0.24785110925461801</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>94</v>
       </c>
@@ -3495,7 +4019,7 @@
         <v>0.24537965283579299</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -3503,7 +4027,7 @@
         <v>0.23660772301123101</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>29</v>
       </c>
@@ -3511,7 +4035,7 @@
         <v>0.236155202821869</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>60</v>
       </c>
@@ -3519,7 +4043,7 @@
         <v>0.23296435533277601</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>109</v>
       </c>
@@ -3527,7 +4051,7 @@
         <v>0.23296435533277601</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>170</v>
       </c>
@@ -3535,7 +4059,7 @@
         <v>0.23296435533277601</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3543,7 +4067,7 @@
         <v>0.23225656734428601</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -3551,7 +4075,7 @@
         <v>0.23004037872458899</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>134</v>
       </c>
@@ -3559,7 +4083,7 @@
         <v>0.23004037872458899</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>47</v>
       </c>
@@ -3567,7 +4091,7 @@
         <v>0.228357931866703</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>58</v>
       </c>
@@ -3575,7 +4099,7 @@
         <v>0.22711640211640199</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>108</v>
       </c>
@@ -3583,7 +4107,7 @@
         <v>0.21707741576162601</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>71</v>
       </c>
@@ -3591,7 +4115,7 @@
         <v>0.21613756613756499</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>100</v>
       </c>
@@ -3599,7 +4123,7 @@
         <v>0.210233918128654</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>124</v>
       </c>
@@ -3607,7 +4131,7 @@
         <v>0.20991599368792299</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -3615,7 +4139,7 @@
         <v>0.209672328970574</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>74</v>
       </c>
@@ -3623,7 +4147,7 @@
         <v>0.204799034623595</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>139</v>
       </c>
@@ -3631,7 +4155,7 @@
         <v>0.19964726631393201</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>102</v>
       </c>
@@ -3639,7 +4163,7 @@
         <v>0.195224382505084</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -3647,7 +4171,7 @@
         <v>0.19083841759280301</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>43</v>
       </c>
@@ -3655,7 +4179,7 @@
         <v>0.19083841759280301</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>48</v>
       </c>
@@ -3663,7 +4187,7 @@
         <v>0.19083841759280301</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>144</v>
       </c>
@@ -3671,7 +4195,7 @@
         <v>0.181100900399146</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>75</v>
       </c>
@@ -3679,7 +4203,7 @@
         <v>0.17191822147962499</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>151</v>
       </c>
@@ -3687,7 +4211,7 @@
         <v>0.15550450199572899</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -3695,7 +4219,7 @@
         <v>0.133088191860121</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -3703,7 +4227,7 @@
         <v>5.84795321637426E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>133</v>
       </c>
@@ -3711,7 +4235,7 @@
         <v>5.84795321637426E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>152</v>
       </c>
@@ -3719,7 +4243,7 @@
         <v>5.84795321637426E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>154</v>
       </c>
@@ -3736,20 +4260,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -3757,7 +4281,7 @@
         <v>7022.2450608364097</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -3765,7 +4289,7 @@
         <v>6228.8627450997401</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3773,7 +4297,7 @@
         <v>6137.0409733216602</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -3781,7 +4305,7 @@
         <v>6070.4370722516396</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -3789,7 +4313,7 @@
         <v>5326.6910498976904</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -3797,7 +4321,7 @@
         <v>5013.6651120933802</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3805,7 +4329,7 @@
         <v>4656.6604407099703</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -3813,7 +4337,7 @@
         <v>4108.87344443654</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -3821,7 +4345,7 @@
         <v>3124.7840946905699</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -3829,7 +4353,7 @@
         <v>3100.5541967903</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -3837,7 +4361,7 @@
         <v>2881.8134518154002</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3845,7 +4369,7 @@
         <v>2429.9538748832802</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -3853,7 +4377,7 @@
         <v>2240.6666666666601</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -3861,7 +4385,7 @@
         <v>2022.5678932178901</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -3869,7 +4393,7 @@
         <v>1986.6932466932401</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -3877,7 +4401,7 @@
         <v>1768.86017316017</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>164</v>
       </c>
@@ -3885,7 +4409,7 @@
         <v>1699.50862822576</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -3893,7 +4417,7 @@
         <v>1689.6339631850699</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -3901,7 +4425,7 @@
         <v>1650.3887146976399</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -3909,7 +4433,7 @@
         <v>1626.62529002529</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3917,7 +4441,7 @@
         <v>1494.6666666666599</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -3925,7 +4449,7 @@
         <v>1417.4412227922201</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -3933,7 +4457,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -3941,7 +4465,7 @@
         <v>1313.57213452512</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3949,7 +4473,7 @@
         <v>1124.9647990897899</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -3957,7 +4481,7 @@
         <v>1122.8920634920601</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -3965,7 +4489,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3973,7 +4497,7 @@
         <v>881.60372873453605</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -3981,7 +4505,7 @@
         <v>859.28119523119506</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -3989,7 +4513,7 @@
         <v>814.33333333333303</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -3997,7 +4521,7 @@
         <v>763.06861471861396</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -4005,7 +4529,7 @@
         <v>673.85210966924501</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -4013,7 +4537,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -4021,7 +4545,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -4029,7 +4553,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -4037,7 +4561,7 @@
         <v>652.81455699742105</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -4045,7 +4569,7 @@
         <v>610.49242424242402</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -4053,7 +4577,7 @@
         <v>546.94945609945603</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -4061,7 +4585,7 @@
         <v>525.25116194520604</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -4069,7 +4593,7 @@
         <v>509.33333333333297</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -4077,7 +4601,7 @@
         <v>504.24284198851598</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -4085,7 +4609,7 @@
         <v>502.36394139707602</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -4093,7 +4617,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -4101,7 +4625,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -4109,7 +4633,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>111</v>
       </c>
@@ -4117,7 +4641,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -4125,7 +4649,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -4133,7 +4657,7 @@
         <v>468.775396825396</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -4141,7 +4665,7 @@
         <v>466.09610389610299</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -4149,7 +4673,7 @@
         <v>455.42217390796299</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>169</v>
       </c>
@@ -4157,7 +4681,7 @@
         <v>454.12893402837102</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>147</v>
       </c>
@@ -4165,7 +4689,7 @@
         <v>445.26886043756099</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -4173,7 +4697,7 @@
         <v>435.46631908240198</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -4181,7 +4705,7 @@
         <v>424.86522366522303</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -4189,7 +4713,7 @@
         <v>420.76709956709902</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -4197,7 +4721,7 @@
         <v>402.2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -4205,7 +4729,7 @@
         <v>374.81995654114598</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -4213,7 +4737,7 @@
         <v>374.71926406926298</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -4221,7 +4745,7 @@
         <v>374.38354978354897</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -4229,7 +4753,7 @@
         <v>373.452231102231</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -4237,7 +4761,7 @@
         <v>368.15238095238101</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>138</v>
       </c>
@@ -4245,7 +4769,7 @@
         <v>367.45136950136902</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -4253,7 +4777,7 @@
         <v>367.433333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -4261,7 +4785,7 @@
         <v>366.25210966924499</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>140</v>
       </c>
@@ -4269,7 +4793,7 @@
         <v>365.36752136752102</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -4277,7 +4801,7 @@
         <v>364.91336996336997</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4285,7 +4809,7 @@
         <v>363.90983880983902</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -4293,7 +4817,7 @@
         <v>360.95136950136902</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -4301,7 +4825,7 @@
         <v>355.4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -4309,7 +4833,7 @@
         <v>355.18835874270599</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -4317,7 +4841,7 @@
         <v>354.11666666666599</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -4325,7 +4849,7 @@
         <v>351.39999999999901</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -4333,7 +4857,7 @@
         <v>350.81950435185701</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>149</v>
       </c>
@@ -4341,7 +4865,7 @@
         <v>346.37936507936399</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -4349,7 +4873,7 @@
         <v>345.68571428571403</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -4357,7 +4881,7 @@
         <v>345.68571428571403</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -4365,7 +4889,7 @@
         <v>345.60808080807999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -4373,7 +4897,7 @@
         <v>342.83333333333297</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -4381,7 +4905,7 @@
         <v>341.666666666666</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -4389,7 +4913,7 @@
         <v>340.33333333333297</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -4397,7 +4921,7 @@
         <v>337.666666666666</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>99</v>
       </c>
@@ -4405,7 +4929,7 @@
         <v>337.053846153846</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -4413,7 +4937,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>156</v>
       </c>
@@ -4421,7 +4945,7 @@
         <v>336.849999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -4429,7 +4953,7 @@
         <v>336.73333333333301</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -4437,7 +4961,7 @@
         <v>336.666666666666</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -4445,7 +4969,7 @@
         <v>336.4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>55</v>
       </c>
@@ -4453,7 +4977,7 @@
         <v>336.166666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -4461,7 +4985,7 @@
         <v>336.166666666666</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -4469,7 +4993,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>63</v>
       </c>
@@ -4477,7 +5001,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>108</v>
       </c>
@@ -4485,7 +5009,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>160</v>
       </c>
@@ -4493,7 +5017,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>150</v>
       </c>
@@ -4501,7 +5025,7 @@
         <v>335.73333333333301</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -4509,7 +5033,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -4517,7 +5041,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -4525,7 +5049,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -4533,7 +5057,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -4541,7 +5065,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -4549,7 +5073,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -4557,7 +5081,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -4565,7 +5089,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -4573,7 +5097,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -4581,7 +5105,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -4589,7 +5113,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -4597,7 +5121,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -4605,7 +5129,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -4613,7 +5137,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -4621,7 +5145,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -4629,7 +5153,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -4637,7 +5161,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -4645,7 +5169,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -4653,7 +5177,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -4661,7 +5185,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -4669,7 +5193,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>37</v>
       </c>
@@ -4677,7 +5201,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>39</v>
       </c>
@@ -4685,7 +5209,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>43</v>
       </c>
@@ -4693,7 +5217,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>45</v>
       </c>
@@ -4701,7 +5225,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -4709,7 +5233,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>51</v>
       </c>
@@ -4717,7 +5241,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>58</v>
       </c>
@@ -4725,7 +5249,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>60</v>
       </c>
@@ -4733,7 +5257,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>64</v>
       </c>
@@ -4741,7 +5265,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>65</v>
       </c>
@@ -4749,7 +5273,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>67</v>
       </c>
@@ -4757,7 +5281,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>74</v>
       </c>
@@ -4765,7 +5289,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -4773,7 +5297,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -4781,7 +5305,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -4789,7 +5313,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -4797,7 +5321,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>80</v>
       </c>
@@ -4805,7 +5329,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>83</v>
       </c>
@@ -4813,7 +5337,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>85</v>
       </c>
@@ -4821,7 +5345,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>87</v>
       </c>
@@ -4829,7 +5353,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -4837,7 +5361,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>90</v>
       </c>
@@ -4845,7 +5369,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>92</v>
       </c>
@@ -4853,7 +5377,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>93</v>
       </c>
@@ -4861,7 +5385,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>101</v>
       </c>
@@ -4869,7 +5393,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>102</v>
       </c>
@@ -4877,7 +5401,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>105</v>
       </c>
@@ -4885,7 +5409,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>107</v>
       </c>
@@ -4893,7 +5417,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>109</v>
       </c>
@@ -4901,7 +5425,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>110</v>
       </c>
@@ -4909,7 +5433,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>112</v>
       </c>
@@ -4917,7 +5441,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>115</v>
       </c>
@@ -4925,7 +5449,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>116</v>
       </c>
@@ -4933,7 +5457,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>117</v>
       </c>
@@ -4941,7 +5465,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>118</v>
       </c>
@@ -4949,7 +5473,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>119</v>
       </c>
@@ -4957,7 +5481,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>122</v>
       </c>
@@ -4965,7 +5489,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>128</v>
       </c>
@@ -4973,7 +5497,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>131</v>
       </c>
@@ -4981,7 +5505,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>134</v>
       </c>
@@ -4989,7 +5513,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>136</v>
       </c>
@@ -4997,7 +5521,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>141</v>
       </c>
@@ -5005,7 +5529,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>143</v>
       </c>
@@ -5013,7 +5537,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>153</v>
       </c>
@@ -5021,7 +5545,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -5029,7 +5553,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -5037,7 +5561,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -5045,7 +5569,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -5053,7 +5577,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -5061,7 +5585,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -5069,7 +5593,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>170</v>
       </c>
@@ -5077,7 +5601,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>171</v>
       </c>
@@ -5085,7 +5609,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>125</v>
       </c>
@@ -5093,7 +5617,7 @@
         <v>334.99999999999898</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -5101,7 +5625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>133</v>
       </c>
@@ -5109,7 +5633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>152</v>
       </c>
@@ -5117,7 +5641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>154</v>
       </c>
@@ -5131,4 +5655,920 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CAFB9D-B732-4434-94C0-114D690BAB37}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F079C9-CD16-42EC-89E2-F8F8F9D8DC50}">
+  <dimension ref="A1:A173"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ComplexNetwork1/src/result/CA.xlsx
+++ b/ComplexNetwork1/src/result/CA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="connected component" sheetId="5" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="betweenness" sheetId="1" r:id="rId4"/>
     <sheet name="density" sheetId="6" r:id="rId5"/>
     <sheet name="clustering coefficient" sheetId="7" r:id="rId6"/>
+    <sheet name="pageRank" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="523">
   <si>
     <t>[CAYWK]</t>
   </si>
@@ -1077,6 +1078,522 @@
   </si>
   <si>
     <t>CAYZP: 0.0</t>
+  </si>
+  <si>
+    <t>CAYWK: 0.6085755960976994</t>
+  </si>
+  <si>
+    <t>CAYWJ: 0.24109125671940038</t>
+  </si>
+  <si>
+    <t>CAYWG: 0.9800828853228987</t>
+  </si>
+  <si>
+    <t>CAYFS: 0.1513954755488643</t>
+  </si>
+  <si>
+    <t>CAYFO: 0.2395943184668877</t>
+  </si>
+  <si>
+    <t>CAYGK: 0.1348166008352925</t>
+  </si>
+  <si>
+    <t>CAYOP: 0.20980416011955139</t>
+  </si>
+  <si>
+    <t>CAYGH: 0.25304459749626695</t>
+  </si>
+  <si>
+    <t>CAYOJ: 0.20980416898862125</t>
+  </si>
+  <si>
+    <t>CAYWP: 0.30664273353511834</t>
+  </si>
+  <si>
+    <t>CAYWL: 0.2215440640249542</t>
+  </si>
+  <si>
+    <t>CAYXL: 0.879826234881961</t>
+  </si>
+  <si>
+    <t>CAYGZ: 0.33333336828892207</t>
+  </si>
+  <si>
+    <t>CAYPC: 0.18115288701701868</t>
+  </si>
+  <si>
+    <t>CAYXJ: 0.32443794629794653</t>
+  </si>
+  <si>
+    <t>CAYGX: 0.1836889702227043</t>
+  </si>
+  <si>
+    <t>CAYGW: 0.4327445857283516</t>
+  </si>
+  <si>
+    <t>CAYXH: 0.13998273091512198</t>
+  </si>
+  <si>
+    <t>CAYGV: 0.221346822657079</t>
+  </si>
+  <si>
+    <t>CAYGT: 0.33886320849820173</t>
+  </si>
+  <si>
+    <t>CAYXE: 0.29128398340571926</t>
+  </si>
+  <si>
+    <t>CAYXC: 0.2218136070089129</t>
+  </si>
+  <si>
+    <t>CAYGR: 0.2511564793942326</t>
+  </si>
+  <si>
+    <t>CAYGP: 0.19452655083024212</t>
+  </si>
+  <si>
+    <t>CAYOW: 0.7105370542429214</t>
+  </si>
+  <si>
+    <t>CAYGL: 0.24940199844009867</t>
+  </si>
+  <si>
+    <t>CAYHK: 0.277092121785632</t>
+  </si>
+  <si>
+    <t>CAYPR: 0.14400363385408516</t>
+  </si>
+  <si>
+    <t>CAYXY: 0.3095818510469943</t>
+  </si>
+  <si>
+    <t>CAYHI: 0.34046636521171436</t>
+  </si>
+  <si>
+    <t>CAYXX: 0.17635543188865593</t>
+  </si>
+  <si>
+    <t>CAYPO: 0.23326652991324054</t>
+  </si>
+  <si>
+    <t>CAYPN: 0.22134681682250662</t>
+  </si>
+  <si>
+    <t>CAYXU: 0.24406604444276989</t>
+  </si>
+  <si>
+    <t>CAYPM: 0.3143536336219239</t>
+  </si>
+  <si>
+    <t>CAYXT: 0.2443317318632756</t>
+  </si>
+  <si>
+    <t>CAYHD: 0.3000195949749606</t>
+  </si>
+  <si>
+    <t>CAYPL: 0.2146592467318236</t>
+  </si>
+  <si>
+    <t>CAYXS: 0.4950554653262319</t>
+  </si>
+  <si>
+    <t>CAZRJ: 0.23280492060598407</t>
+  </si>
+  <si>
+    <t>CAYPH: 0.27124507758043803</t>
+  </si>
+  <si>
+    <t>CAYXP: 0.30590729149023016</t>
+  </si>
+  <si>
+    <t>CAYXN: 0.2626484599232371</t>
+  </si>
+  <si>
+    <t>CAYUB: 0.18115288701701868</t>
+  </si>
+  <si>
+    <t>CAYDQ: 0.20476516465056047</t>
+  </si>
+  <si>
+    <t>CAYDP: 0.1474129387184554</t>
+  </si>
+  <si>
+    <t>CAYLW: 0.4863502573676459</t>
+  </si>
+  <si>
+    <t>CAZFN: 0.256273660487246</t>
+  </si>
+  <si>
+    <t>CAZFM: 0.18115288701701868</t>
+  </si>
+  <si>
+    <t>CAYTZ: 0.43109186422645307</t>
+  </si>
+  <si>
+    <t>CAYUY: 0.2390390728280849</t>
+  </si>
+  <si>
+    <t>CAYUX: 0.24002808095617234</t>
+  </si>
+  <si>
+    <t>CAYEG: 1.1431420305967814</t>
+  </si>
+  <si>
+    <t>CAYMO: 0.32154885154415197</t>
+  </si>
+  <si>
+    <t>CAYMM: 0.376522265245143</t>
+  </si>
+  <si>
+    <t>CAYUT: 0.26314611517523223</t>
+  </si>
+  <si>
+    <t>CAYUL: 1.2690404400947906</t>
+  </si>
+  <si>
+    <t>CAYNA: 0.24119960707160387</t>
+  </si>
+  <si>
+    <t>CAZPB: 0.15132319703478106</t>
+  </si>
+  <si>
+    <t>CAYEV: 0.8115288701701867</t>
+  </si>
+  <si>
+    <t>CAYER: 0.2837310000870396</t>
+  </si>
+  <si>
+    <t>CAYVB: 0.33677725958358407</t>
+  </si>
+  <si>
+    <t>CAYMT: 0.2066416958928582</t>
+  </si>
+  <si>
+    <t>CAYEK: 0.2569086486499763</t>
+  </si>
+  <si>
+    <t>CAYFJ: 0.1513954755488643</t>
+  </si>
+  <si>
+    <t>CAYVZ: 0.2578721481347357</t>
+  </si>
+  <si>
+    <t>CAYFH: 0.23151200016385393</t>
+  </si>
+  <si>
+    <t>CAYFC: 0.23796120802036166</t>
+  </si>
+  <si>
+    <t>CAYVR: 1.9487323563951993</t>
+  </si>
+  <si>
+    <t>CAYFB: 0.783771415370468</t>
+  </si>
+  <si>
+    <t>CAYVQ: 0.41080977416713327</t>
+  </si>
+  <si>
+    <t>CAYFA: 0.29250298169761113</t>
+  </si>
+  <si>
+    <t>CAYVP: 0.6401097420062235</t>
+  </si>
+  <si>
+    <t>CAYVO: 0.3107755334439678</t>
+  </si>
+  <si>
+    <t>CAYVM: 0.20706755202158056</t>
+  </si>
+  <si>
+    <t>CAYNC: 0.21240573449222372</t>
+  </si>
+  <si>
+    <t>CAYSG: 0.1513954755488643</t>
+  </si>
+  <si>
+    <t>CAYBR: 0.13998273091512198</t>
+  </si>
+  <si>
+    <t>CAYSB: 0.36992592686258585</t>
+  </si>
+  <si>
+    <t>CAYBL: 0.19447827622567634</t>
+  </si>
+  <si>
+    <t>CAYJT: 0.18452144768075524</t>
+  </si>
+  <si>
+    <t>CAYBK: 0.32918239628103474</t>
+  </si>
+  <si>
+    <t>CAYBG: 0.30105084522415415</t>
+  </si>
+  <si>
+    <t>CAYCG: 0.1839863647692071</t>
+  </si>
+  <si>
+    <t>CAYKL: 0.2745359735825577</t>
+  </si>
+  <si>
+    <t>CAYCD: 0.1839863647692071</t>
+  </si>
+  <si>
+    <t>CAYCB: 0.34881037605590104</t>
+  </si>
+  <si>
+    <t>CAYKG: 0.15600961944172737</t>
+  </si>
+  <si>
+    <t>CAYKF: 0.13998273091512198</t>
+  </si>
+  <si>
+    <t>CAYSM: 0.31401067801155136</t>
+  </si>
+  <si>
+    <t>CAZUM: 0.18614047665194536</t>
+  </si>
+  <si>
+    <t>CAYSK: 0.1865951989504465</t>
+  </si>
+  <si>
+    <t>CAYSJ: 0.20480281215569202</t>
+  </si>
+  <si>
+    <t>CAYKA: 0.22730372932996404</t>
+  </si>
+  <si>
+    <t>CAYBX: 0.3010499025332129</t>
+  </si>
+  <si>
+    <t>CAYTH: 0.40783417195730176</t>
+  </si>
+  <si>
+    <t>CAYTE: 0.22140304072034572</t>
+  </si>
+  <si>
+    <t>CAYCS: 0.26314613345597065</t>
+  </si>
+  <si>
+    <t>CAYCO: 0.29187945365274837</t>
+  </si>
+  <si>
+    <t>CAYCL: 0.174547275866722</t>
+  </si>
+  <si>
+    <t>CAZEM: 0.32115924140635344</t>
+  </si>
+  <si>
+    <t>CAZMT: 0.14400363385408516</t>
+  </si>
+  <si>
+    <t>CAYSY: 0.260595038899752</t>
+  </si>
+  <si>
+    <t>CAYKQ: 0.4141441286039471</t>
+  </si>
+  <si>
+    <t>CAYDF: 0.3220642776296798</t>
+  </si>
+  <si>
+    <t>CAYLL: 0.13998273091512198</t>
+  </si>
+  <si>
+    <t>CAYTS: 0.4002649327605129</t>
+  </si>
+  <si>
+    <t>CAYTQ: 0.15600960242554457</t>
+  </si>
+  <si>
+    <t>CAYLH: 0.2525791809442863</t>
+  </si>
+  <si>
+    <t>CAYTL: 0.28373100413219743</t>
+  </si>
+  <si>
+    <t>CAYLC: 0.16095999897325863</t>
+  </si>
+  <si>
+    <t>CAYCY: 0.25485339806492513</t>
+  </si>
+  <si>
+    <t>CAYQD: 0.2395943111983114</t>
+  </si>
+  <si>
+    <t>CAYHZ: 0.7675658128549724</t>
+  </si>
+  <si>
+    <t>CAYQB: 0.7184672215063099</t>
+  </si>
+  <si>
+    <t>CAYHY: 0.24272005691868254</t>
+  </si>
+  <si>
+    <t>CAYYJ: 0.2930029233420861</t>
+  </si>
+  <si>
+    <t>CAYYH: 0.27709213040136443</t>
+  </si>
+  <si>
+    <t>CAYYG: 0.20480281215569202</t>
+  </si>
+  <si>
+    <t>CAYYF: 0.14400363385408516</t>
+  </si>
+  <si>
+    <t>CAYHU: 0.27633162665192035</t>
+  </si>
+  <si>
+    <t>CAYYE: 0.2604064971190653</t>
+  </si>
+  <si>
+    <t>CAYYD: 0.24433172450489474</t>
+  </si>
+  <si>
+    <t>CAYYC: 1.8277819846912897</t>
+  </si>
+  <si>
+    <t>CAYHR: 0.27806906687794997</t>
+  </si>
+  <si>
+    <t>CAYYB: 0.17797462563592753</t>
+  </si>
+  <si>
+    <t>CAYPY: 0.19887946626395483</t>
+  </si>
+  <si>
+    <t>CAYPX: 0.2774939563017271</t>
+  </si>
+  <si>
+    <t>CAYPW: 0.14400363385408516</t>
+  </si>
+  <si>
+    <t>CAZBF: 0.1813152989154998</t>
+  </si>
+  <si>
+    <t>CAYHM: 0.25165529514783724</t>
+  </si>
+  <si>
+    <t>CAYQU: 0.17635543188865593</t>
+  </si>
+  <si>
+    <t>CAYQT: 0.8006008320816873</t>
+  </si>
+  <si>
+    <t>CAYIK: 0.33333336828892207</t>
+  </si>
+  <si>
+    <t>CAYAC: 0.23280492448915147</t>
+  </si>
+  <si>
+    <t>CAYYZ: 1.442402034604976</t>
+  </si>
+  <si>
+    <t>CAYQR: 0.29128398340571926</t>
+  </si>
+  <si>
+    <t>CAYQQ: 0.28842646242172776</t>
+  </si>
+  <si>
+    <t>CAYYY: 0.34339566367742336</t>
+  </si>
+  <si>
+    <t>CAYIF: 0.2675691554368246</t>
+  </si>
+  <si>
+    <t>CAYQM: 0.2820008951853523</t>
+  </si>
+  <si>
+    <t>CAYYU: 0.18980685106235584</t>
+  </si>
+  <si>
+    <t>CAYYT: 0.5069886275905724</t>
+  </si>
+  <si>
+    <t>CAYQL: 0.13998273091512198</t>
+  </si>
+  <si>
+    <t>CAZKE: 0.33564258761597165</t>
+  </si>
+  <si>
+    <t>CAYQK: 0.24745170879134812</t>
+  </si>
+  <si>
+    <t>CAYYR: 0.6095949263801407</t>
+  </si>
+  <si>
+    <t>CAYYQ: 0.2887305034297961</t>
+  </si>
+  <si>
+    <t>CAZSJ: 0.314353623468964</t>
+  </si>
+  <si>
+    <t>CAYQG: 0.21251988038596165</t>
+  </si>
+  <si>
+    <t>CAYQF: 0.2217375707667611</t>
+  </si>
+  <si>
+    <t>CAYAT: 0.3807615140378301</t>
+  </si>
+  <si>
+    <t>CAYRB: 0.33333335780224543</t>
+  </si>
+  <si>
+    <t>CAYRA: 0.1513954755488643</t>
+  </si>
+  <si>
+    <t>CAYZG: 0.33333335780224543</t>
+  </si>
+  <si>
+    <t>CAYZF: 1.2481758347581324</t>
+  </si>
+  <si>
+    <t>CAYAM: 0.2588044911214399</t>
+  </si>
+  <si>
+    <t>CAYQZ: 0.2215440562628191</t>
+  </si>
+  <si>
+    <t>CAYQY: 0.17063633876852458</t>
+  </si>
+  <si>
+    <t>CAYQX: 0.22266512546428752</t>
+  </si>
+  <si>
+    <t>CAYIO: 0.2682667809531727</t>
+  </si>
+  <si>
+    <t>CAYAG: 0.25217122405356807</t>
+  </si>
+  <si>
+    <t>CAYRT: 0.7086538498122924</t>
+  </si>
+  <si>
+    <t>CAYBC: 0.24888021063193808</t>
+  </si>
+  <si>
+    <t>CAYZV: 0.6267918413218422</t>
+  </si>
+  <si>
+    <t>CAYZT: 0.14400363385408516</t>
+  </si>
+  <si>
+    <t>CAYRL: 0.4101289084477824</t>
+  </si>
+  <si>
+    <t>CAYZS: 0.3453887430116991</t>
+  </si>
+  <si>
+    <t>CAYZR: 0.1348166008352925</t>
+  </si>
+  <si>
+    <t>CAYAY: 0.2570903721817179</t>
+  </si>
+  <si>
+    <t>CAYAX: 0.28373100894891057</t>
+  </si>
+  <si>
+    <t>CAYZP: 0.14400363385408516</t>
   </si>
 </sst>
 </file>
@@ -5694,8 +6211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F079C9-CD16-42EC-89E2-F8F8F9D8DC50}">
   <dimension ref="A1:A173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6571,4 +7088,892 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38614E5-E495-4BD6-86CD-437E1B55E538}">
+  <dimension ref="A1:A175"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ComplexNetwork1/src/result/CA.xlsx
+++ b/ComplexNetwork1/src/result/CA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="connected component" sheetId="5" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="betweenness" sheetId="1" r:id="rId4"/>
     <sheet name="density" sheetId="6" r:id="rId5"/>
     <sheet name="clustering coefficient" sheetId="7" r:id="rId6"/>
+    <sheet name="pageRank" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="351">
   <si>
     <t>[CAYWK]</t>
   </si>
@@ -563,520 +564,520 @@
     <t>the average clustering coefficient is: 0.43987601150772704</t>
   </si>
   <si>
-    <t>CAYWK: 0.3090909090909091</t>
-  </si>
-  <si>
-    <t>CAYWJ: 0.0</t>
-  </si>
-  <si>
-    <t>CAYWG: 0.19883040935672514</t>
-  </si>
-  <si>
-    <t>CAYFS: 0.0</t>
-  </si>
-  <si>
-    <t>CAYFO: 1.0</t>
-  </si>
-  <si>
-    <t>CAYGK: 0.0</t>
-  </si>
-  <si>
-    <t>CAYOP: 1.0</t>
-  </si>
-  <si>
-    <t>CAYGH: 1.0</t>
-  </si>
-  <si>
-    <t>CAYOJ: 1.0</t>
-  </si>
-  <si>
-    <t>CAYWP: 0.3333333333333333</t>
-  </si>
-  <si>
-    <t>CAYWL: 1.0</t>
-  </si>
-  <si>
-    <t>CAYXL: 0.15151515151515152</t>
-  </si>
-  <si>
-    <t>CAYGZ: 0.0</t>
-  </si>
-  <si>
-    <t>CAYPC: 0.0</t>
-  </si>
-  <si>
-    <t>CAYXJ: 0.6</t>
-  </si>
-  <si>
-    <t>CAYGX: 1.0</t>
-  </si>
-  <si>
-    <t>CAYGW: 0.26666666666666666</t>
-  </si>
-  <si>
-    <t>CAYXH: 0.0</t>
-  </si>
-  <si>
-    <t>CAYGV: 1.0</t>
-  </si>
-  <si>
-    <t>CAYGT: 0.3333333333333333</t>
-  </si>
-  <si>
-    <t>CAYXE: 1.0</t>
-  </si>
-  <si>
-    <t>CAYXC: 1.0</t>
-  </si>
-  <si>
-    <t>CAYGR: 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>CAYGP: 1.0</t>
-  </si>
-  <si>
-    <t>CAYOW: 0.34285714285714286</t>
-  </si>
-  <si>
-    <t>CAYGL: 0.3333333333333333</t>
-  </si>
-  <si>
-    <t>CAYHK: 1.0</t>
-  </si>
-  <si>
-    <t>CAYPR: 0.0</t>
-  </si>
-  <si>
-    <t>CAYXY: 0.8</t>
-  </si>
-  <si>
-    <t>CAYHI: 0.3333333333333333</t>
-  </si>
-  <si>
-    <t>CAYXX: 1.0</t>
-  </si>
-  <si>
-    <t>CAYPO: 0.0</t>
-  </si>
-  <si>
-    <t>CAYPN: 1.0</t>
-  </si>
-  <si>
-    <t>CAYXU: 1.0</t>
-  </si>
-  <si>
-    <t>CAYPM: 0.8333333333333334</t>
-  </si>
-  <si>
-    <t>CAYXT: 1.0</t>
-  </si>
-  <si>
-    <t>CAYHD: 0.3333333333333333</t>
-  </si>
-  <si>
-    <t>CAYPL: 1.0</t>
-  </si>
-  <si>
-    <t>CAYXS: 0.39285714285714285</t>
-  </si>
-  <si>
-    <t>CAZRJ: 1.0</t>
-  </si>
-  <si>
-    <t>CAYPH: 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>CAYXP: 0.0</t>
-  </si>
-  <si>
-    <t>CAYXN: 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>CAYUB: 0.0</t>
-  </si>
-  <si>
-    <t>CAYDQ: 0.0</t>
-  </si>
-  <si>
-    <t>CAYDP: 0.0</t>
-  </si>
-  <si>
-    <t>CAYLW: 0.5</t>
-  </si>
-  <si>
-    <t>CAZFN: 0.0</t>
-  </si>
-  <si>
-    <t>CAZFM: 0.0</t>
-  </si>
-  <si>
-    <t>CAYTZ: 0.2857142857142857</t>
-  </si>
-  <si>
-    <t>CAYUY: 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>CAYUX: 1.0</t>
-  </si>
-  <si>
-    <t>CAYEG: 0.21645021645021645</t>
-  </si>
-  <si>
-    <t>CAYMO: 0.0</t>
-  </si>
-  <si>
-    <t>CAYMM: 0.4666666666666667</t>
-  </si>
-  <si>
-    <t>CAYUT: 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>CAYUL: 0.15692307692307692</t>
-  </si>
-  <si>
-    <t>CAYNA: 0.0</t>
-  </si>
-  <si>
-    <t>CAZPB: 0.0</t>
-  </si>
-  <si>
-    <t>CAYEV: 0.09523809523809523</t>
-  </si>
-  <si>
-    <t>CAYER: 1.0</t>
-  </si>
-  <si>
-    <t>CAYVB: 0.4</t>
-  </si>
-  <si>
-    <t>CAYMT: 0.0</t>
-  </si>
-  <si>
-    <t>CAYEK: 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>CAYFJ: 0.0</t>
-  </si>
-  <si>
-    <t>CAYVZ: 1.0</t>
-  </si>
-  <si>
-    <t>CAYFH: 0.0</t>
-  </si>
-  <si>
-    <t>CAYFC: 1.0</t>
-  </si>
-  <si>
-    <t>CAYVR: 0.11612903225806452</t>
-  </si>
-  <si>
-    <t>CAYFB: 0.027777777777777776</t>
-  </si>
-  <si>
-    <t>CAYVQ: 0.16666666666666666</t>
-  </si>
-  <si>
-    <t>CAYFA: 0.0</t>
-  </si>
-  <si>
-    <t>CAYVP: 0.10714285714285714</t>
-  </si>
-  <si>
-    <t>CAYVO: 0.16666666666666666</t>
-  </si>
-  <si>
-    <t>CAYVM: 0.0</t>
-  </si>
-  <si>
-    <t>CAYNC: 0.0</t>
-  </si>
-  <si>
-    <t>CAYSG: 0.0</t>
-  </si>
-  <si>
-    <t>CAYBR: 0.0</t>
-  </si>
-  <si>
-    <t>CAYSB: 0.6</t>
-  </si>
-  <si>
-    <t>CAYBL: 1.0</t>
-  </si>
-  <si>
-    <t>CAYJT: 1.0</t>
-  </si>
-  <si>
-    <t>CAYBK: 0.5</t>
-  </si>
-  <si>
-    <t>CAYBG: 0.8</t>
-  </si>
-  <si>
-    <t>CAYCG: 1.0</t>
-  </si>
-  <si>
-    <t>CAYKL: 0.5</t>
-  </si>
-  <si>
-    <t>CAYCD: 1.0</t>
-  </si>
-  <si>
-    <t>CAYCB: 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>CAYKG: 0.0</t>
-  </si>
-  <si>
-    <t>CAYKF: 0.0</t>
-  </si>
-  <si>
-    <t>CAYSM: 0.5</t>
-  </si>
-  <si>
-    <t>CAZUM: 1.0</t>
-  </si>
-  <si>
-    <t>CAYSK: 0.0</t>
-  </si>
-  <si>
-    <t>CAYSJ: 1.0</t>
-  </si>
-  <si>
-    <t>CAYKA: 1.0</t>
-  </si>
-  <si>
-    <t>CAYBX: 0.3333333333333333</t>
-  </si>
-  <si>
-    <t>CAYTH: 0.4666666666666667</t>
-  </si>
-  <si>
-    <t>CAYTE: 0.0</t>
-  </si>
-  <si>
-    <t>CAYCS: 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>CAYCO: 0.3333333333333333</t>
-  </si>
-  <si>
-    <t>CAYCL: 0.0</t>
-  </si>
-  <si>
-    <t>CAZEM: 0.0</t>
-  </si>
-  <si>
-    <t>CAZMT: 0.0</t>
-  </si>
-  <si>
-    <t>CAYSY: 1.0</t>
-  </si>
-  <si>
-    <t>CAYKQ: 0.0</t>
-  </si>
-  <si>
-    <t>CAYDF: 0.6</t>
-  </si>
-  <si>
-    <t>CAYLL: 0.0</t>
-  </si>
-  <si>
-    <t>CAYTS: 0.4</t>
-  </si>
-  <si>
-    <t>CAYTQ: 0.0</t>
-  </si>
-  <si>
-    <t>CAYLH: 0.0</t>
-  </si>
-  <si>
-    <t>CAYTL: 1.0</t>
-  </si>
-  <si>
-    <t>CAYLC: 0.0</t>
-  </si>
-  <si>
-    <t>CAYCY: 0.0</t>
-  </si>
-  <si>
-    <t>CAYQD: 1.0</t>
-  </si>
-  <si>
-    <t>CAYHZ: 0.26666666666666666</t>
-  </si>
-  <si>
-    <t>CAYQB: 0.27472527472527475</t>
-  </si>
-  <si>
-    <t>CAYHY: 1.0</t>
-  </si>
-  <si>
-    <t>CAYYJ: 1.0</t>
-  </si>
-  <si>
-    <t>CAYYH: 1.0</t>
-  </si>
-  <si>
-    <t>CAYYG: 1.0</t>
-  </si>
-  <si>
-    <t>CAYYF: 0.0</t>
-  </si>
-  <si>
-    <t>CAYHU: 0.5</t>
-  </si>
-  <si>
-    <t>CAYYE: 0.3333333333333333</t>
-  </si>
-  <si>
-    <t>CAYYD: 1.0</t>
-  </si>
-  <si>
-    <t>CAYYC: 0.1310483870967742</t>
-  </si>
-  <si>
-    <t>CAYHR: 0.0</t>
-  </si>
-  <si>
-    <t>CAYYB: 1.0</t>
-  </si>
-  <si>
-    <t>CAYPY: 0.0</t>
-  </si>
-  <si>
-    <t>CAYPX: 0.3333333333333333</t>
-  </si>
-  <si>
-    <t>CAYPW: 0.0</t>
-  </si>
-  <si>
-    <t>CAZBF: 0.0</t>
-  </si>
-  <si>
-    <t>CAYHM: 0.5</t>
-  </si>
-  <si>
-    <t>CAYQU: 1.0</t>
-  </si>
-  <si>
-    <t>CAYQT: 0.16666666666666666</t>
-  </si>
-  <si>
-    <t>CAYIK: 0.0</t>
-  </si>
-  <si>
-    <t>CAYAC: 1.0</t>
-  </si>
-  <si>
-    <t>CAYYZ: 0.16009852216748768</t>
-  </si>
-  <si>
-    <t>CAYQR: 1.0</t>
-  </si>
-  <si>
-    <t>CAYQQ: 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>CAYYY: 0.7333333333333333</t>
-  </si>
-  <si>
-    <t>CAYIF: 0.0</t>
-  </si>
-  <si>
-    <t>CAYQM: 0.7</t>
-  </si>
-  <si>
-    <t>CAYYU: 1.0</t>
-  </si>
-  <si>
-    <t>CAYYT: 0.3888888888888889</t>
-  </si>
-  <si>
-    <t>CAYQL: 0.0</t>
-  </si>
-  <si>
-    <t>CAZKE: 0.0</t>
-  </si>
-  <si>
-    <t>CAYQK: 0.0</t>
-  </si>
-  <si>
-    <t>CAYYR: 0.2222222222222222</t>
-  </si>
-  <si>
-    <t>CAYYQ: 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>CAZSJ: 0.8333333333333334</t>
-  </si>
-  <si>
-    <t>CAYQG: 0.3333333333333333</t>
-  </si>
-  <si>
-    <t>CAYQF: 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>CAYAT: 0.0</t>
-  </si>
-  <si>
-    <t>CAYRB: 0.0</t>
-  </si>
-  <si>
-    <t>CAYRA: 0.0</t>
-  </si>
-  <si>
-    <t>CAYZG: 0.0</t>
-  </si>
-  <si>
-    <t>CAYZF: 0.08823529411764706</t>
-  </si>
-  <si>
-    <t>CAYAM: 0.8333333333333334</t>
-  </si>
-  <si>
-    <t>CAYQZ: 1.0</t>
-  </si>
-  <si>
-    <t>CAYQY: 1.0</t>
-  </si>
-  <si>
-    <t>CAYQX: 1.0</t>
-  </si>
-  <si>
-    <t>CAYIO: 0.0</t>
-  </si>
-  <si>
-    <t>CAYAG: 0.3333333333333333</t>
-  </si>
-  <si>
-    <t>CAYRT: 0.18181818181818182</t>
-  </si>
-  <si>
-    <t>CAYBC: 1.0</t>
-  </si>
-  <si>
-    <t>CAYZV: 0.3111111111111111</t>
-  </si>
-  <si>
-    <t>CAYZT: 0.0</t>
-  </si>
-  <si>
-    <t>CAYRL: 0.4</t>
-  </si>
-  <si>
-    <t>CAYZS: 0.3333333333333333</t>
-  </si>
-  <si>
-    <t>CAYZR: 0.0</t>
-  </si>
-  <si>
-    <t>CAYAY: 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>CAYAX: 1.0</t>
-  </si>
-  <si>
-    <t>CAYZP: 0.0</t>
+    <t>CAYWK</t>
+  </si>
+  <si>
+    <t>CAYWJ</t>
+  </si>
+  <si>
+    <t>CAYWG</t>
+  </si>
+  <si>
+    <t>CAYFS</t>
+  </si>
+  <si>
+    <t>CAYFO</t>
+  </si>
+  <si>
+    <t>CAYGK</t>
+  </si>
+  <si>
+    <t>CAYOP</t>
+  </si>
+  <si>
+    <t>CAYGH</t>
+  </si>
+  <si>
+    <t>CAYOJ</t>
+  </si>
+  <si>
+    <t>CAYWP</t>
+  </si>
+  <si>
+    <t>CAYWL</t>
+  </si>
+  <si>
+    <t>CAYXL</t>
+  </si>
+  <si>
+    <t>CAYGZ</t>
+  </si>
+  <si>
+    <t>CAYPC</t>
+  </si>
+  <si>
+    <t>CAYXJ</t>
+  </si>
+  <si>
+    <t>CAYGX</t>
+  </si>
+  <si>
+    <t>CAYGW</t>
+  </si>
+  <si>
+    <t>CAYXH</t>
+  </si>
+  <si>
+    <t>CAYGV</t>
+  </si>
+  <si>
+    <t>CAYGT</t>
+  </si>
+  <si>
+    <t>CAYXE</t>
+  </si>
+  <si>
+    <t>CAYXC</t>
+  </si>
+  <si>
+    <t>CAYGR</t>
+  </si>
+  <si>
+    <t>CAYGP</t>
+  </si>
+  <si>
+    <t>CAYOW</t>
+  </si>
+  <si>
+    <t>CAYGL</t>
+  </si>
+  <si>
+    <t>CAYHK</t>
+  </si>
+  <si>
+    <t>CAYPR</t>
+  </si>
+  <si>
+    <t>CAYXY</t>
+  </si>
+  <si>
+    <t>CAYHI</t>
+  </si>
+  <si>
+    <t>CAYXX</t>
+  </si>
+  <si>
+    <t>CAYPO</t>
+  </si>
+  <si>
+    <t>CAYPN</t>
+  </si>
+  <si>
+    <t>CAYXU</t>
+  </si>
+  <si>
+    <t>CAYPM</t>
+  </si>
+  <si>
+    <t>CAYXT</t>
+  </si>
+  <si>
+    <t>CAYHD</t>
+  </si>
+  <si>
+    <t>CAYPL</t>
+  </si>
+  <si>
+    <t>CAYXS</t>
+  </si>
+  <si>
+    <t>CAZRJ</t>
+  </si>
+  <si>
+    <t>CAYPH</t>
+  </si>
+  <si>
+    <t>CAYXP</t>
+  </si>
+  <si>
+    <t>CAYXN</t>
+  </si>
+  <si>
+    <t>CAYUB</t>
+  </si>
+  <si>
+    <t>CAYDQ</t>
+  </si>
+  <si>
+    <t>CAYDP</t>
+  </si>
+  <si>
+    <t>CAYLW</t>
+  </si>
+  <si>
+    <t>CAZFN</t>
+  </si>
+  <si>
+    <t>CAZFM</t>
+  </si>
+  <si>
+    <t>CAYTZ</t>
+  </si>
+  <si>
+    <t>CAYUY</t>
+  </si>
+  <si>
+    <t>CAYUX</t>
+  </si>
+  <si>
+    <t>CAYEG</t>
+  </si>
+  <si>
+    <t>CAYMO</t>
+  </si>
+  <si>
+    <t>CAYMM</t>
+  </si>
+  <si>
+    <t>CAYUT</t>
+  </si>
+  <si>
+    <t>CAYUL</t>
+  </si>
+  <si>
+    <t>CAYNA</t>
+  </si>
+  <si>
+    <t>CAZPB</t>
+  </si>
+  <si>
+    <t>CAYEV</t>
+  </si>
+  <si>
+    <t>CAYER</t>
+  </si>
+  <si>
+    <t>CAYVB</t>
+  </si>
+  <si>
+    <t>CAYMT</t>
+  </si>
+  <si>
+    <t>CAYEK</t>
+  </si>
+  <si>
+    <t>CAYFJ</t>
+  </si>
+  <si>
+    <t>CAYVZ</t>
+  </si>
+  <si>
+    <t>CAYFH</t>
+  </si>
+  <si>
+    <t>CAYFC</t>
+  </si>
+  <si>
+    <t>CAYVR</t>
+  </si>
+  <si>
+    <t>CAYFB</t>
+  </si>
+  <si>
+    <t>CAYVQ</t>
+  </si>
+  <si>
+    <t>CAYFA</t>
+  </si>
+  <si>
+    <t>CAYVP</t>
+  </si>
+  <si>
+    <t>CAYVO</t>
+  </si>
+  <si>
+    <t>CAYVM</t>
+  </si>
+  <si>
+    <t>CAYNC</t>
+  </si>
+  <si>
+    <t>CAYSG</t>
+  </si>
+  <si>
+    <t>CAYBR</t>
+  </si>
+  <si>
+    <t>CAYSB</t>
+  </si>
+  <si>
+    <t>CAYBL</t>
+  </si>
+  <si>
+    <t>CAYJT</t>
+  </si>
+  <si>
+    <t>CAYBK</t>
+  </si>
+  <si>
+    <t>CAYBG</t>
+  </si>
+  <si>
+    <t>CAYCG</t>
+  </si>
+  <si>
+    <t>CAYKL</t>
+  </si>
+  <si>
+    <t>CAYCD</t>
+  </si>
+  <si>
+    <t>CAYCB</t>
+  </si>
+  <si>
+    <t>CAYKG</t>
+  </si>
+  <si>
+    <t>CAYKF</t>
+  </si>
+  <si>
+    <t>CAYSM</t>
+  </si>
+  <si>
+    <t>CAZUM</t>
+  </si>
+  <si>
+    <t>CAYSK</t>
+  </si>
+  <si>
+    <t>CAYSJ</t>
+  </si>
+  <si>
+    <t>CAYKA</t>
+  </si>
+  <si>
+    <t>CAYBX</t>
+  </si>
+  <si>
+    <t>CAYTH</t>
+  </si>
+  <si>
+    <t>CAYTE</t>
+  </si>
+  <si>
+    <t>CAYCS</t>
+  </si>
+  <si>
+    <t>CAYCO</t>
+  </si>
+  <si>
+    <t>CAYCL</t>
+  </si>
+  <si>
+    <t>CAZEM</t>
+  </si>
+  <si>
+    <t>CAZMT</t>
+  </si>
+  <si>
+    <t>CAYSY</t>
+  </si>
+  <si>
+    <t>CAYKQ</t>
+  </si>
+  <si>
+    <t>CAYDF</t>
+  </si>
+  <si>
+    <t>CAYLL</t>
+  </si>
+  <si>
+    <t>CAYTS</t>
+  </si>
+  <si>
+    <t>CAYTQ</t>
+  </si>
+  <si>
+    <t>CAYLH</t>
+  </si>
+  <si>
+    <t>CAYTL</t>
+  </si>
+  <si>
+    <t>CAYLC</t>
+  </si>
+  <si>
+    <t>CAYCY</t>
+  </si>
+  <si>
+    <t>CAYQD</t>
+  </si>
+  <si>
+    <t>CAYHZ</t>
+  </si>
+  <si>
+    <t>CAYQB</t>
+  </si>
+  <si>
+    <t>CAYHY</t>
+  </si>
+  <si>
+    <t>CAYYJ</t>
+  </si>
+  <si>
+    <t>CAYYH</t>
+  </si>
+  <si>
+    <t>CAYYG</t>
+  </si>
+  <si>
+    <t>CAYYF</t>
+  </si>
+  <si>
+    <t>CAYHU</t>
+  </si>
+  <si>
+    <t>CAYYE</t>
+  </si>
+  <si>
+    <t>CAYYD</t>
+  </si>
+  <si>
+    <t>CAYYC</t>
+  </si>
+  <si>
+    <t>CAYHR</t>
+  </si>
+  <si>
+    <t>CAYYB</t>
+  </si>
+  <si>
+    <t>CAYPY</t>
+  </si>
+  <si>
+    <t>CAYPX</t>
+  </si>
+  <si>
+    <t>CAYPW</t>
+  </si>
+  <si>
+    <t>CAZBF</t>
+  </si>
+  <si>
+    <t>CAYHM</t>
+  </si>
+  <si>
+    <t>CAYQU</t>
+  </si>
+  <si>
+    <t>CAYQT</t>
+  </si>
+  <si>
+    <t>CAYIK</t>
+  </si>
+  <si>
+    <t>CAYAC</t>
+  </si>
+  <si>
+    <t>CAYYZ</t>
+  </si>
+  <si>
+    <t>CAYQR</t>
+  </si>
+  <si>
+    <t>CAYQQ</t>
+  </si>
+  <si>
+    <t>CAYYY</t>
+  </si>
+  <si>
+    <t>CAYIF</t>
+  </si>
+  <si>
+    <t>CAYQM</t>
+  </si>
+  <si>
+    <t>CAYYU</t>
+  </si>
+  <si>
+    <t>CAYYT</t>
+  </si>
+  <si>
+    <t>CAYQL</t>
+  </si>
+  <si>
+    <t>CAZKE</t>
+  </si>
+  <si>
+    <t>CAYQK</t>
+  </si>
+  <si>
+    <t>CAYYR</t>
+  </si>
+  <si>
+    <t>CAYYQ</t>
+  </si>
+  <si>
+    <t>CAZSJ</t>
+  </si>
+  <si>
+    <t>CAYQG</t>
+  </si>
+  <si>
+    <t>CAYQF</t>
+  </si>
+  <si>
+    <t>CAYAT</t>
+  </si>
+  <si>
+    <t>CAYRB</t>
+  </si>
+  <si>
+    <t>CAYRA</t>
+  </si>
+  <si>
+    <t>CAYZG</t>
+  </si>
+  <si>
+    <t>CAYZF</t>
+  </si>
+  <si>
+    <t>CAYAM</t>
+  </si>
+  <si>
+    <t>CAYQZ</t>
+  </si>
+  <si>
+    <t>CAYQY</t>
+  </si>
+  <si>
+    <t>CAYQX</t>
+  </si>
+  <si>
+    <t>CAYIO</t>
+  </si>
+  <si>
+    <t>CAYAG</t>
+  </si>
+  <si>
+    <t>CAYRT</t>
+  </si>
+  <si>
+    <t>CAYBC</t>
+  </si>
+  <si>
+    <t>CAYZV</t>
+  </si>
+  <si>
+    <t>CAYZT</t>
+  </si>
+  <si>
+    <t>CAYRL</t>
+  </si>
+  <si>
+    <t>CAYZS</t>
+  </si>
+  <si>
+    <t>CAYZR</t>
+  </si>
+  <si>
+    <t>CAYAY</t>
+  </si>
+  <si>
+    <t>CAYAX</t>
+  </si>
+  <si>
+    <t>CAYZP</t>
   </si>
 </sst>
 </file>
@@ -5692,880 +5693,2812 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F079C9-CD16-42EC-89E2-F8F8F9D8DC50}">
-  <dimension ref="A1:A173"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4">
+        <v>0.30909090909090903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6">
+        <v>0.198830409356725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15">
+        <v>0.15151515151515099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20">
+        <v>0.266666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28">
+        <v>0.34285714285714203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42">
+        <v>0.39285714285714202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53">
+        <v>0.28571428571428498</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56">
+        <v>0.216450216450216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58">
+        <v>0.46666666666666601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60">
+        <v>0.156923076923076</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63">
+        <v>9.5238095238095205E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>240</v>
+      </c>
+      <c r="B65">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>242</v>
+      </c>
+      <c r="B67">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72">
+        <v>0.11612903225806399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73">
+        <v>2.77777777777777E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>250</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>251</v>
+      </c>
+      <c r="B76">
+        <v>0.107142857142857</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>252</v>
+      </c>
+      <c r="B77">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>256</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>257</v>
+      </c>
+      <c r="B82">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>258</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>259</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>261</v>
+      </c>
+      <c r="B86">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>262</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>266</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>268</v>
+      </c>
+      <c r="B93">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>269</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>270</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>271</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>272</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>273</v>
+      </c>
+      <c r="B98">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>274</v>
+      </c>
+      <c r="B99">
+        <v>0.46666666666666601</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>275</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>276</v>
+      </c>
+      <c r="B101">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>277</v>
+      </c>
+      <c r="B102">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>278</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>279</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>280</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>281</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>282</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>283</v>
+      </c>
+      <c r="B108">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>284</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>285</v>
+      </c>
+      <c r="B110">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>286</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>287</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>288</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>289</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>290</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>291</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>292</v>
+      </c>
+      <c r="B117">
+        <v>0.266666666666666</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>293</v>
+      </c>
+      <c r="B118">
+        <v>0.27472527472527403</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>294</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>295</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>296</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>297</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>298</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>299</v>
+      </c>
+      <c r="B124">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>300</v>
+      </c>
+      <c r="B125">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>301</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>302</v>
+      </c>
+      <c r="B127">
+        <v>0.13104838709677399</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>303</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>304</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>305</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>306</v>
+      </c>
+      <c r="B131">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>307</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>308</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>309</v>
+      </c>
+      <c r="B134">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>310</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>311</v>
+      </c>
+      <c r="B136">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>312</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>313</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>314</v>
+      </c>
+      <c r="B139">
+        <v>0.16009852216748699</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>315</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>316</v>
+      </c>
+      <c r="B141">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>317</v>
+      </c>
+      <c r="B142">
+        <v>0.73333333333333295</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>318</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>319</v>
+      </c>
+      <c r="B144">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>320</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>321</v>
+      </c>
+      <c r="B146">
+        <v>0.38888888888888801</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>322</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>323</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>324</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>325</v>
+      </c>
+      <c r="B150">
+        <v>0.22222222222222199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>326</v>
+      </c>
+      <c r="B151">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>327</v>
+      </c>
+      <c r="B152">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>328</v>
+      </c>
+      <c r="B153">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>329</v>
+      </c>
+      <c r="B154">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>330</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>331</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>332</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>333</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>334</v>
+      </c>
+      <c r="B159">
+        <v>8.8235294117646995E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>335</v>
+      </c>
+      <c r="B160">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>336</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>337</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>338</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>339</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>341</v>
+      </c>
+      <c r="B166">
+        <v>0.18181818181818099</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>342</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>343</v>
+      </c>
+      <c r="B168">
+        <v>0.31111111111111101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>345</v>
+      </c>
+      <c r="B170">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>346</v>
+      </c>
+      <c r="B171">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>347</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>348</v>
+      </c>
+      <c r="B173">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>349</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>350</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316DB294-BC15-4EE8-975C-59A65540C50A}">
+  <dimension ref="A1:B175"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>0.60857559609769896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>0.24109125671939999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0.980082885322898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0.15139547554886401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0.239594318466887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0.13481660083529201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>0.209804160119551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>0.25304459749626601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B12">
+        <v>0.209804168988621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B13">
+        <v>0.30664273353511801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B14">
+        <v>0.221544064024954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>0.87982623488196099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B16">
+        <v>0.33333336828892202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B17">
+        <v>0.18115288701701801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B18">
+        <v>0.32443794629794598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B19">
+        <v>0.183688970222704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B20">
+        <v>0.43274458572835101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B21">
+        <v>0.13998273091512101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B22">
+        <v>0.221346822657079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B23">
+        <v>0.33886320849820101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B24">
+        <v>0.29128398340571898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B25">
+        <v>0.22181360700891201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B26">
+        <v>0.25115647939423202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B27">
+        <v>0.19452655083024201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B28">
+        <v>0.71053705424292102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B29">
+        <v>0.249401998440098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B30">
+        <v>0.27709212178563197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B31">
+        <v>0.14400363385408499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B32">
+        <v>0.30958185104699398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B33">
+        <v>0.34046636521171397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B34">
+        <v>0.17635543188865499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B35">
+        <v>0.23326652991324001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B36">
+        <v>0.22134681682250601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B37">
+        <v>0.244066044442769</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B38">
+        <v>0.31435363362192298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B39">
+        <v>0.244331731863275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B40">
+        <v>0.30001959497496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B41">
+        <v>0.21465924673182299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B42">
+        <v>0.49505546532623101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B43">
+        <v>0.23280492060598401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B44">
+        <v>0.27124507758043798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B45">
+        <v>0.30590729149022999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B46">
+        <v>0.26264845992323699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B47">
+        <v>0.18115288701701801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B48">
+        <v>0.20476516465055999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B49">
+        <v>0.14741293871845501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B50">
+        <v>0.48635025736764498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B51">
+        <v>0.25627366048724598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B52">
+        <v>0.18115288701701801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B53">
+        <v>0.43109186422645301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B54">
+        <v>0.23903907282808401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B55">
+        <v>0.24002808095617201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B56">
+        <v>1.1431420305967801</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B57">
+        <v>0.32154885154415103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B58">
+        <v>0.37652226524514298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B59">
+        <v>0.26314611517523201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B60">
+        <v>1.2690404400947899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="B61">
+        <v>0.24119960707160301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B62">
+        <v>0.151323197034781</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B63">
+        <v>0.81152887017018605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B64">
+        <v>0.283731000087039</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B65">
+        <v>0.33677725958358401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="B66">
+        <v>0.206641695892858</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B67">
+        <v>0.25690864864997598</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="B68">
+        <v>0.15139547554886401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B69">
+        <v>0.25787214813473502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B70">
+        <v>0.23151200016385301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B71">
+        <v>0.237961208020361</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B72">
+        <v>1.9487323563951899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B73">
+        <v>0.78377141537046802</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B74">
+        <v>0.41080977416713299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B75">
+        <v>0.29250298169761102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B76">
+        <v>0.64010974200622295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B77">
+        <v>0.31077553344396702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B78">
+        <v>0.20706755202158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B79">
+        <v>0.212405734492223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B80">
+        <v>0.15139547554886401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="B81">
+        <v>0.13998273091512101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="B82">
+        <v>0.36992592686258502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="B83">
+        <v>0.19447827622567601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="B84">
+        <v>0.18452144768075501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="B85">
+        <v>0.32918239628103402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B86">
+        <v>0.30105084522415398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="B87">
+        <v>0.18398636476920699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="B88">
+        <v>0.27453597358255699</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B89">
+        <v>0.18398636476920699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B90">
+        <v>0.34881037605590098</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B91">
+        <v>0.156009619441727</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B92">
+        <v>0.13998273091512101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B93">
+        <v>0.31401067801155103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B94">
+        <v>0.186140476651945</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="B95">
+        <v>0.18659519895044599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="B96">
+        <v>0.20480281215569199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="B97">
+        <v>0.22730372932996401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="B98">
+        <v>0.30104990253321201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="B99">
+        <v>0.40783417195730098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="B100">
+        <v>0.221403040720345</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B101">
+        <v>0.26314613345596999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="B102">
+        <v>0.29187945365274798</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="B103">
+        <v>0.174547275866722</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="B104">
+        <v>0.32115924140635299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="B105">
+        <v>0.14400363385408499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="B106">
+        <v>0.260595038899752</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B107">
+        <v>0.414144128603947</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B108">
+        <v>0.32206427762967899</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B109">
+        <v>0.13998273091512101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B110">
+        <v>0.400264932760512</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="B111">
+        <v>0.15600960242554399</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B112">
+        <v>0.252579180944286</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B113">
+        <v>0.28373100413219698</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="B114">
+        <v>0.16095999897325799</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="B115">
+        <v>0.25485339806492502</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="B116">
+        <v>0.23959431119831101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="B117">
+        <v>0.76756581285497205</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="B118">
+        <v>0.71846722150630904</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="B119">
+        <v>0.24272005691868201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B120">
+        <v>0.293002923342086</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="B121">
+        <v>0.27709213040136399</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="B122">
+        <v>0.20480281215569199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B123">
+        <v>0.14400363385408499</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B124">
+        <v>0.27633162665192001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="B125">
+        <v>0.26040649711906499</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B126">
+        <v>0.24433172450489399</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="B127">
+        <v>1.8277819846912799</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B128">
+        <v>0.27806906687794902</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="B129">
+        <v>0.177974625635927</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B130">
+        <v>0.198879466263954</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="B131">
+        <v>0.27749395630172702</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="B132">
+        <v>0.14400363385408499</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="B133">
+        <v>0.181315298915499</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="B134">
+        <v>0.25165529514783702</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="B135">
+        <v>0.17635543188865499</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="B136">
+        <v>0.80060083208168697</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="B137">
+        <v>0.33333336828892202</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="B138">
+        <v>0.23280492448915099</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="B139">
+        <v>1.44240203460497</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="B140">
+        <v>0.29128398340571898</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="B141">
+        <v>0.28842646242172698</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="B142">
+        <v>0.34339566367742302</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="B143">
+        <v>0.26756915543682402</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="B144">
+        <v>0.28200089518535199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="B145">
+        <v>0.18980685106235501</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="B146">
+        <v>0.50698862759057195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="B147">
+        <v>0.13998273091512101</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="B148">
+        <v>0.33564258761597099</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="B149">
+        <v>0.24745170879134801</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="B150">
+        <v>0.60959492638014001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="B151">
+        <v>0.288730503429796</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="B152">
+        <v>0.31435362346896401</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="B153">
+        <v>0.21251988038596101</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="B154">
+        <v>0.22173757076676101</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="B155">
+        <v>0.38076151403782998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="B156">
+        <v>0.33333335780224499</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="B157">
+        <v>0.15139547554886401</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="B158">
+        <v>0.33333335780224499</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="B159">
+        <v>1.24817583475813</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="B160">
+        <v>0.258804491121439</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="B161">
+        <v>0.22154405626281901</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="B162">
+        <v>0.17063633876852399</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="B163">
+        <v>0.22266512546428699</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="B164">
+        <v>0.26826678095317202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="B165">
+        <v>0.25217122405356801</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="B166">
+        <v>0.70865384981229196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="B167">
+        <v>0.24888021063193799</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="B168">
+        <v>0.62679184132184196</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="B169">
+        <v>0.14400363385408499</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="B170">
+        <v>0.41012890844778199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+      <c r="B171">
+        <v>0.34538874301169897</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+      <c r="B172">
+        <v>0.13481660083529201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="B173">
+        <v>0.25709037218171699</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+      <c r="B174">
+        <v>0.28373100894891001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>350</v>
+      </c>
+      <c r="B175">
+        <v>0.14400363385408499</v>
       </c>
     </row>
   </sheetData>

--- a/ComplexNetwork1/src/result/CA.xlsx
+++ b/ComplexNetwork1/src/result/CA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="connected component" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="352">
   <si>
     <t>[CAYWK]</t>
   </si>
@@ -1078,6 +1078,9 @@
   </si>
   <si>
     <t>CAYZP</t>
+  </si>
+  <si>
+    <t>the average degree</t>
   </si>
 </sst>
 </file>
@@ -1423,40 +1426,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8">
+        <v>4.3023255813953396</v>
       </c>
     </row>
   </sheetData>
@@ -7105,7 +7117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316DB294-BC15-4EE8-975C-59A65540C50A}">
   <dimension ref="A1:B175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/ComplexNetwork1/src/result/CA.xlsx
+++ b/ComplexNetwork1/src/result/CA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="connected component" sheetId="5" r:id="rId1"/>
@@ -2319,11 +2319,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1852837280"/>
-        <c:axId val="1852857408"/>
+        <c:axId val="2053193008"/>
+        <c:axId val="2053187024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1852837280"/>
+        <c:axId val="2053193008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2366,7 +2366,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1852857408"/>
+        <c:crossAx val="2053187024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2374,7 +2374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1852857408"/>
+        <c:axId val="2053187024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +2425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1852837280"/>
+        <c:crossAx val="2053193008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3382,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B172"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A1:B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4781,8 +4781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6180,7 +6180,7 @@
   <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9020,8 +9020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
